--- a/stats/page_load_times.xlsx
+++ b/stats/page_load_times.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RCzekalski\IdeaProjects\template\stats\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet0" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="584">
   <si>
     <t>https://www.tutorialspoint.com/</t>
   </si>
@@ -258,55 +265,1561 @@
   </si>
   <si>
     <t>10341</t>
+  </si>
+  <si>
+    <t>1191</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>540</t>
+  </si>
+  <si>
+    <t>651</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>568</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>655</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>572</t>
+  </si>
+  <si>
+    <t>486</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>1715</t>
+  </si>
+  <si>
+    <t>454</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>2469</t>
+  </si>
+  <si>
+    <t>8261</t>
+  </si>
+  <si>
+    <t>3946</t>
+  </si>
+  <si>
+    <t>770</t>
+  </si>
+  <si>
+    <t>1518</t>
+  </si>
+  <si>
+    <t>8688</t>
+  </si>
+  <si>
+    <t>5874</t>
+  </si>
+  <si>
+    <t>18110</t>
+  </si>
+  <si>
+    <t>3187</t>
+  </si>
+  <si>
+    <t>6745</t>
+  </si>
+  <si>
+    <t>1146</t>
+  </si>
+  <si>
+    <t>1637</t>
+  </si>
+  <si>
+    <t>23859</t>
+  </si>
+  <si>
+    <t>5389</t>
+  </si>
+  <si>
+    <t>5076</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>6542</t>
+  </si>
+  <si>
+    <t>531</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>6817</t>
+  </si>
+  <si>
+    <t>5894</t>
+  </si>
+  <si>
+    <t>14226</t>
+  </si>
+  <si>
+    <t>2446</t>
+  </si>
+  <si>
+    <t>6993</t>
+  </si>
+  <si>
+    <t>1149</t>
+  </si>
+  <si>
+    <t>1142</t>
+  </si>
+  <si>
+    <t>38241</t>
+  </si>
+  <si>
+    <t>5287</t>
+  </si>
+  <si>
+    <t>8421</t>
+  </si>
+  <si>
+    <t>2635</t>
+  </si>
+  <si>
+    <t>7113</t>
+  </si>
+  <si>
+    <t>689</t>
+  </si>
+  <si>
+    <t>1323</t>
+  </si>
+  <si>
+    <t>7062</t>
+  </si>
+  <si>
+    <t>5904</t>
+  </si>
+  <si>
+    <t>13839</t>
+  </si>
+  <si>
+    <t>3552</t>
+  </si>
+  <si>
+    <t>7012</t>
+  </si>
+  <si>
+    <t>1029</t>
+  </si>
+  <si>
+    <t>1268</t>
+  </si>
+  <si>
+    <t>24686</t>
+  </si>
+  <si>
+    <t>7094</t>
+  </si>
+  <si>
+    <t>13395</t>
+  </si>
+  <si>
+    <t>2517</t>
+  </si>
+  <si>
+    <t>6684</t>
+  </si>
+  <si>
+    <t>1182</t>
+  </si>
+  <si>
+    <t>1361</t>
+  </si>
+  <si>
+    <t>7546</t>
+  </si>
+  <si>
+    <t>5298</t>
+  </si>
+  <si>
+    <t>9340</t>
+  </si>
+  <si>
+    <t>3039</t>
+  </si>
+  <si>
+    <t>6899</t>
+  </si>
+  <si>
+    <t>552</t>
+  </si>
+  <si>
+    <t>1152</t>
+  </si>
+  <si>
+    <t>7903</t>
+  </si>
+  <si>
+    <t>11361</t>
+  </si>
+  <si>
+    <t>2277</t>
+  </si>
+  <si>
+    <t>6455</t>
+  </si>
+  <si>
+    <t>971</t>
+  </si>
+  <si>
+    <t>1367</t>
+  </si>
+  <si>
+    <t>5806</t>
+  </si>
+  <si>
+    <t>5584</t>
+  </si>
+  <si>
+    <t>7657</t>
+  </si>
+  <si>
+    <t>2969</t>
+  </si>
+  <si>
+    <t>6551</t>
+  </si>
+  <si>
+    <t>574</t>
+  </si>
+  <si>
+    <t>1275</t>
+  </si>
+  <si>
+    <t>7290</t>
+  </si>
+  <si>
+    <t>6790</t>
+  </si>
+  <si>
+    <t>14843</t>
+  </si>
+  <si>
+    <t>2812</t>
+  </si>
+  <si>
+    <t>6875</t>
+  </si>
+  <si>
+    <t>1045</t>
+  </si>
+  <si>
+    <t>23631</t>
+  </si>
+  <si>
+    <t>6140</t>
+  </si>
+  <si>
+    <t>14539</t>
+  </si>
+  <si>
+    <t>2660</t>
+  </si>
+  <si>
+    <t>6509</t>
+  </si>
+  <si>
+    <t>1184</t>
+  </si>
+  <si>
+    <t>1330</t>
+  </si>
+  <si>
+    <t>23999</t>
+  </si>
+  <si>
+    <t>5867</t>
+  </si>
+  <si>
+    <t>12211</t>
+  </si>
+  <si>
+    <t>2442</t>
+  </si>
+  <si>
+    <t>6618</t>
+  </si>
+  <si>
+    <t>1218</t>
+  </si>
+  <si>
+    <t>5677</t>
+  </si>
+  <si>
+    <t>5810</t>
+  </si>
+  <si>
+    <t>15294</t>
+  </si>
+  <si>
+    <t>2478</t>
+  </si>
+  <si>
+    <t>6332</t>
+  </si>
+  <si>
+    <t>969</t>
+  </si>
+  <si>
+    <t>1685</t>
+  </si>
+  <si>
+    <t>6740</t>
+  </si>
+  <si>
+    <t>5851</t>
+  </si>
+  <si>
+    <t>11702</t>
+  </si>
+  <si>
+    <t>1645</t>
+  </si>
+  <si>
+    <t>6021</t>
+  </si>
+  <si>
+    <t>918</t>
+  </si>
+  <si>
+    <t>1090</t>
+  </si>
+  <si>
+    <t>30396</t>
+  </si>
+  <si>
+    <t>5703</t>
+  </si>
+  <si>
+    <t>10223</t>
+  </si>
+  <si>
+    <t>2708</t>
+  </si>
+  <si>
+    <t>7167</t>
+  </si>
+  <si>
+    <t>1389</t>
+  </si>
+  <si>
+    <t>1640</t>
+  </si>
+  <si>
+    <t>5152</t>
+  </si>
+  <si>
+    <t>20874</t>
+  </si>
+  <si>
+    <t>8615</t>
+  </si>
+  <si>
+    <t>3401</t>
+  </si>
+  <si>
+    <t>6826</t>
+  </si>
+  <si>
+    <t>1125</t>
+  </si>
+  <si>
+    <t>1070</t>
+  </si>
+  <si>
+    <t>5424</t>
+  </si>
+  <si>
+    <t>20592</t>
+  </si>
+  <si>
+    <t>15225</t>
+  </si>
+  <si>
+    <t>2414</t>
+  </si>
+  <si>
+    <t>6230</t>
+  </si>
+  <si>
+    <t>623</t>
+  </si>
+  <si>
+    <t>1151</t>
+  </si>
+  <si>
+    <t>7100</t>
+  </si>
+  <si>
+    <t>6008</t>
+  </si>
+  <si>
+    <t>12756</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>7022</t>
+  </si>
+  <si>
+    <t>627</t>
+  </si>
+  <si>
+    <t>1088</t>
+  </si>
+  <si>
+    <t>7356</t>
+  </si>
+  <si>
+    <t>5947</t>
+  </si>
+  <si>
+    <t>15208</t>
+  </si>
+  <si>
+    <t>2858</t>
+  </si>
+  <si>
+    <t>6379</t>
+  </si>
+  <si>
+    <t>968</t>
+  </si>
+  <si>
+    <t>6550</t>
+  </si>
+  <si>
+    <t>5601</t>
+  </si>
+  <si>
+    <t>14074</t>
+  </si>
+  <si>
+    <t>2327</t>
+  </si>
+  <si>
+    <t>6167</t>
+  </si>
+  <si>
+    <t>1454</t>
+  </si>
+  <si>
+    <t>1249</t>
+  </si>
+  <si>
+    <t>6770</t>
+  </si>
+  <si>
+    <t>6384</t>
+  </si>
+  <si>
+    <t>16745</t>
+  </si>
+  <si>
+    <t>2151</t>
+  </si>
+  <si>
+    <t>6181</t>
+  </si>
+  <si>
+    <t>1074</t>
+  </si>
+  <si>
+    <t>1264</t>
+  </si>
+  <si>
+    <t>25093</t>
+  </si>
+  <si>
+    <t>7130</t>
+  </si>
+  <si>
+    <t>13308</t>
+  </si>
+  <si>
+    <t>2433</t>
+  </si>
+  <si>
+    <t>6600</t>
+  </si>
+  <si>
+    <t>902</t>
+  </si>
+  <si>
+    <t>1313</t>
+  </si>
+  <si>
+    <t>6652</t>
+  </si>
+  <si>
+    <t>5565</t>
+  </si>
+  <si>
+    <t>8517</t>
+  </si>
+  <si>
+    <t>2592</t>
+  </si>
+  <si>
+    <t>6704</t>
+  </si>
+  <si>
+    <t>637</t>
+  </si>
+  <si>
+    <t>1164</t>
+  </si>
+  <si>
+    <t>7567</t>
+  </si>
+  <si>
+    <t>22539</t>
+  </si>
+  <si>
+    <t>6122</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>6630</t>
+  </si>
+  <si>
+    <t>698</t>
+  </si>
+  <si>
+    <t>1474</t>
+  </si>
+  <si>
+    <t>8135</t>
+  </si>
+  <si>
+    <t>5717</t>
+  </si>
+  <si>
+    <t>9811</t>
+  </si>
+  <si>
+    <t>2530</t>
+  </si>
+  <si>
+    <t>6486</t>
+  </si>
+  <si>
+    <t>1175</t>
+  </si>
+  <si>
+    <t>1170</t>
+  </si>
+  <si>
+    <t>7694</t>
+  </si>
+  <si>
+    <t>11159</t>
+  </si>
+  <si>
+    <t>14710</t>
+  </si>
+  <si>
+    <t>2628</t>
+  </si>
+  <si>
+    <t>6796</t>
+  </si>
+  <si>
+    <t>626</t>
+  </si>
+  <si>
+    <t>1242</t>
+  </si>
+  <si>
+    <t>6743</t>
+  </si>
+  <si>
+    <t>7898</t>
+  </si>
+  <si>
+    <t>5517</t>
+  </si>
+  <si>
+    <t>1888</t>
+  </si>
+  <si>
+    <t>7459</t>
+  </si>
+  <si>
+    <t>694</t>
+  </si>
+  <si>
+    <t>1557</t>
+  </si>
+  <si>
+    <t>6495</t>
+  </si>
+  <si>
+    <t>23652</t>
+  </si>
+  <si>
+    <t>6840</t>
+  </si>
+  <si>
+    <t>1956</t>
+  </si>
+  <si>
+    <t>6223</t>
+  </si>
+  <si>
+    <t>1196</t>
+  </si>
+  <si>
+    <t>7064</t>
+  </si>
+  <si>
+    <t>5746</t>
+  </si>
+  <si>
+    <t>18966</t>
+  </si>
+  <si>
+    <t>2784</t>
+  </si>
+  <si>
+    <t>6648</t>
+  </si>
+  <si>
+    <t>615</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>23565</t>
+  </si>
+  <si>
+    <t>6114</t>
+  </si>
+  <si>
+    <t>13471</t>
+  </si>
+  <si>
+    <t>3075</t>
+  </si>
+  <si>
+    <t>6615</t>
+  </si>
+  <si>
+    <t>683</t>
+  </si>
+  <si>
+    <t>1267</t>
+  </si>
+  <si>
+    <t>7364</t>
+  </si>
+  <si>
+    <t>6073</t>
+  </si>
+  <si>
+    <t>6883</t>
+  </si>
+  <si>
+    <t>2651</t>
+  </si>
+  <si>
+    <t>6670</t>
+  </si>
+  <si>
+    <t>672</t>
+  </si>
+  <si>
+    <t>7223</t>
+  </si>
+  <si>
+    <t>6228</t>
+  </si>
+  <si>
+    <t>6681</t>
+  </si>
+  <si>
+    <t>6352</t>
+  </si>
+  <si>
+    <t>606</t>
+  </si>
+  <si>
+    <t>1204</t>
+  </si>
+  <si>
+    <t>25445</t>
+  </si>
+  <si>
+    <t>6038</t>
+  </si>
+  <si>
+    <t>6698</t>
+  </si>
+  <si>
+    <t>2081</t>
+  </si>
+  <si>
+    <t>6201</t>
+  </si>
+  <si>
+    <t>639</t>
+  </si>
+  <si>
+    <t>1130</t>
+  </si>
+  <si>
+    <t>7835</t>
+  </si>
+  <si>
+    <t>6111</t>
+  </si>
+  <si>
+    <t>22977</t>
+  </si>
+  <si>
+    <t>2816</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>7785</t>
+  </si>
+  <si>
+    <t>22646</t>
+  </si>
+  <si>
+    <t>7820</t>
+  </si>
+  <si>
+    <t>2830</t>
+  </si>
+  <si>
+    <t>6590</t>
+  </si>
+  <si>
+    <t>669</t>
+  </si>
+  <si>
+    <t>1450</t>
+  </si>
+  <si>
+    <t>8278</t>
+  </si>
+  <si>
+    <t>6318</t>
+  </si>
+  <si>
+    <t>6979</t>
+  </si>
+  <si>
+    <t>2696</t>
+  </si>
+  <si>
+    <t>6713</t>
+  </si>
+  <si>
+    <t>2220</t>
+  </si>
+  <si>
+    <t>5447</t>
+  </si>
+  <si>
+    <t>6029</t>
+  </si>
+  <si>
+    <t>13726</t>
+  </si>
+  <si>
+    <t>1825</t>
+  </si>
+  <si>
+    <t>6445</t>
+  </si>
+  <si>
+    <t>976</t>
+  </si>
+  <si>
+    <t>1202</t>
+  </si>
+  <si>
+    <t>26277</t>
+  </si>
+  <si>
+    <t>7144</t>
+  </si>
+  <si>
+    <t>13764</t>
+  </si>
+  <si>
+    <t>2115</t>
+  </si>
+  <si>
+    <t>6856</t>
+  </si>
+  <si>
+    <t>535</t>
+  </si>
+  <si>
+    <t>6774</t>
+  </si>
+  <si>
+    <t>6933</t>
+  </si>
+  <si>
+    <t>2370</t>
+  </si>
+  <si>
+    <t>6742</t>
+  </si>
+  <si>
+    <t>1108</t>
+  </si>
+  <si>
+    <t>1308</t>
+  </si>
+  <si>
+    <t>6395</t>
+  </si>
+  <si>
+    <t>24206</t>
+  </si>
+  <si>
+    <t>7085</t>
+  </si>
+  <si>
+    <t>2095</t>
+  </si>
+  <si>
+    <t>6578</t>
+  </si>
+  <si>
+    <t>1430</t>
+  </si>
+  <si>
+    <t>1471</t>
+  </si>
+  <si>
+    <t>7438</t>
+  </si>
+  <si>
+    <t>35839</t>
+  </si>
+  <si>
+    <t>12936</t>
+  </si>
+  <si>
+    <t>2766</t>
+  </si>
+  <si>
+    <t>6682</t>
+  </si>
+  <si>
+    <t>25097</t>
+  </si>
+  <si>
+    <t>11808</t>
+  </si>
+  <si>
+    <t>9587</t>
+  </si>
+  <si>
+    <t>2576</t>
+  </si>
+  <si>
+    <t>1179</t>
+  </si>
+  <si>
+    <t>1394</t>
+  </si>
+  <si>
+    <t>8608</t>
+  </si>
+  <si>
+    <t>6115</t>
+  </si>
+  <si>
+    <t>10716</t>
+  </si>
+  <si>
+    <t>2993</t>
+  </si>
+  <si>
+    <t>7032</t>
+  </si>
+  <si>
+    <t>720</t>
+  </si>
+  <si>
+    <t>1280</t>
+  </si>
+  <si>
+    <t>8305</t>
+  </si>
+  <si>
+    <t>6172</t>
+  </si>
+  <si>
+    <t>11412</t>
+  </si>
+  <si>
+    <t>3481</t>
+  </si>
+  <si>
+    <t>7092</t>
+  </si>
+  <si>
+    <t>2131</t>
+  </si>
+  <si>
+    <t>1379</t>
+  </si>
+  <si>
+    <t>29405</t>
+  </si>
+  <si>
+    <t>6299</t>
+  </si>
+  <si>
+    <t>9253</t>
+  </si>
+  <si>
+    <t>2885</t>
+  </si>
+  <si>
+    <t>6210</t>
+  </si>
+  <si>
+    <t>1415</t>
+  </si>
+  <si>
+    <t>32117</t>
+  </si>
+  <si>
+    <t>6773</t>
+  </si>
+  <si>
+    <t>12151</t>
+  </si>
+  <si>
+    <t>3637</t>
+  </si>
+  <si>
+    <t>6314</t>
+  </si>
+  <si>
+    <t>709</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>7377</t>
+  </si>
+  <si>
+    <t>6879</t>
+  </si>
+  <si>
+    <t>8359</t>
+  </si>
+  <si>
+    <t>1882</t>
+  </si>
+  <si>
+    <t>6782</t>
+  </si>
+  <si>
+    <t>1145</t>
+  </si>
+  <si>
+    <t>1243</t>
+  </si>
+  <si>
+    <t>6077</t>
+  </si>
+  <si>
+    <t>11669</t>
+  </si>
+  <si>
+    <t>2899</t>
+  </si>
+  <si>
+    <t>8285</t>
+  </si>
+  <si>
+    <t>1652</t>
+  </si>
+  <si>
+    <t>1331</t>
+  </si>
+  <si>
+    <t>35170</t>
+  </si>
+  <si>
+    <t>11546</t>
+  </si>
+  <si>
+    <t>8389</t>
+  </si>
+  <si>
+    <t>3403</t>
+  </si>
+  <si>
+    <t>7309</t>
+  </si>
+  <si>
+    <t>1276</t>
+  </si>
+  <si>
+    <t>29079</t>
+  </si>
+  <si>
+    <t>6235</t>
+  </si>
+  <si>
+    <t>8838</t>
+  </si>
+  <si>
+    <t>2583</t>
+  </si>
+  <si>
+    <t>3835</t>
+  </si>
+  <si>
+    <t>1210</t>
+  </si>
+  <si>
+    <t>1834</t>
+  </si>
+  <si>
+    <t>5396</t>
+  </si>
+  <si>
+    <t>6833</t>
+  </si>
+  <si>
+    <t>8337</t>
+  </si>
+  <si>
+    <t>3070</t>
+  </si>
+  <si>
+    <t>6663</t>
+  </si>
+  <si>
+    <t>721</t>
+  </si>
+  <si>
+    <t>1085</t>
+  </si>
+  <si>
+    <t>23685</t>
+  </si>
+  <si>
+    <t>6931</t>
+  </si>
+  <si>
+    <t>7337</t>
+  </si>
+  <si>
+    <t>4004</t>
+  </si>
+  <si>
+    <t>1486</t>
+  </si>
+  <si>
+    <t>1464</t>
+  </si>
+  <si>
+    <t>31397</t>
+  </si>
+  <si>
+    <t>6573</t>
+  </si>
+  <si>
+    <t>13529</t>
+  </si>
+  <si>
+    <t>3092</t>
+  </si>
+  <si>
+    <t>6965</t>
+  </si>
+  <si>
+    <t>1423</t>
+  </si>
+  <si>
+    <t>5578</t>
+  </si>
+  <si>
+    <t>6281</t>
+  </si>
+  <si>
+    <t>6348</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>6819</t>
+  </si>
+  <si>
+    <t>1181</t>
+  </si>
+  <si>
+    <t>1373</t>
+  </si>
+  <si>
+    <t>6389</t>
+  </si>
+  <si>
+    <t>14197</t>
+  </si>
+  <si>
+    <t>2617</t>
+  </si>
+  <si>
+    <t>6396</t>
+  </si>
+  <si>
+    <t>1478</t>
+  </si>
+  <si>
+    <t>32505</t>
+  </si>
+  <si>
+    <t>7693</t>
+  </si>
+  <si>
+    <t>4560</t>
+  </si>
+  <si>
+    <t>3094</t>
+  </si>
+  <si>
+    <t>6980</t>
+  </si>
+  <si>
+    <t>1549</t>
+  </si>
+  <si>
+    <t>1958</t>
+  </si>
+  <si>
+    <t>7811</t>
+  </si>
+  <si>
+    <t>5793</t>
+  </si>
+  <si>
+    <t>11663</t>
+  </si>
+  <si>
+    <t>4505</t>
+  </si>
+  <si>
+    <t>6677</t>
+  </si>
+  <si>
+    <t>1449</t>
+  </si>
+  <si>
+    <t>36439</t>
+  </si>
+  <si>
+    <t>7348</t>
+  </si>
+  <si>
+    <t>8556</t>
+  </si>
+  <si>
+    <t>3033</t>
+  </si>
+  <si>
+    <t>7475</t>
+  </si>
+  <si>
+    <t>1258</t>
+  </si>
+  <si>
+    <t>1081</t>
+  </si>
+  <si>
+    <t>30668</t>
+  </si>
+  <si>
+    <t>6969</t>
+  </si>
+  <si>
+    <t>3205</t>
+  </si>
+  <si>
+    <t>7379</t>
+  </si>
+  <si>
+    <t>31551</t>
+  </si>
+  <si>
+    <t>12895</t>
+  </si>
+  <si>
+    <t>2730</t>
+  </si>
+  <si>
+    <t>7613</t>
+  </si>
+  <si>
+    <t>1481</t>
+  </si>
+  <si>
+    <t>1317</t>
+  </si>
+  <si>
+    <t>36095</t>
+  </si>
+  <si>
+    <t>6645</t>
+  </si>
+  <si>
+    <t>8788</t>
+  </si>
+  <si>
+    <t>3307</t>
+  </si>
+  <si>
+    <t>7121</t>
+  </si>
+  <si>
+    <t>1284</t>
+  </si>
+  <si>
+    <t>1309</t>
+  </si>
+  <si>
+    <t>30597</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
       <name val="Calibri"/>
-      <sz val="15.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
       <name val="Calibri"/>
-      <sz val="15.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
       <name val="Calibri"/>
-      <sz val="15.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
       <name val="Calibri"/>
-      <sz val="15.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
       <name val="Calibri"/>
-      <sz val="15.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
       <name val="Calibri"/>
-      <sz val="15.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
       <name val="Calibri"/>
-      <sz val="15.0"/>
-      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -314,7 +1827,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -331,38 +1844,314 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H150"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="43.375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="31.6015625" collapsed="true"/>
@@ -373,7 +2162,7 @@
     <col min="7" max="7" bestFit="true" customWidth="true" width="39.22265625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -395,8 +2184,9 @@
       <c r="G1" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -419,7 +2209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -442,7 +2232,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -465,7 +2255,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -488,7 +2278,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -511,7 +2301,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -534,7 +2324,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -557,7 +2347,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -580,7 +2370,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -603,7 +2393,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -626,7 +2416,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -642,8 +2432,2031 @@
       <c r="E12" t="s">
         <v>81</v>
       </c>
+      <c r="F12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" t="s">
+        <v>184</v>
+      </c>
+      <c r="F13" t="s">
+        <v>185</v>
+      </c>
+      <c r="G13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" t="s">
+        <v>191</v>
+      </c>
+      <c r="F14" t="s">
+        <v>192</v>
+      </c>
+      <c r="G14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" t="s">
+        <v>198</v>
+      </c>
+      <c r="F15" t="s">
+        <v>199</v>
+      </c>
+      <c r="G15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F16" t="s">
+        <v>206</v>
+      </c>
+      <c r="G16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E17" t="s">
+        <v>212</v>
+      </c>
+      <c r="F17" t="s">
+        <v>213</v>
+      </c>
+      <c r="G17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" t="s">
+        <v>218</v>
+      </c>
+      <c r="E18" t="s">
+        <v>219</v>
+      </c>
+      <c r="F18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" t="s">
+        <v>225</v>
+      </c>
+      <c r="E19" t="s">
+        <v>226</v>
+      </c>
+      <c r="F19" t="s">
+        <v>227</v>
+      </c>
+      <c r="G19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" t="s">
+        <v>232</v>
+      </c>
+      <c r="E20" t="s">
+        <v>194</v>
+      </c>
+      <c r="F20" t="s">
+        <v>233</v>
+      </c>
+      <c r="G20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>235</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" t="s">
+        <v>238</v>
+      </c>
+      <c r="E21" t="s">
+        <v>239</v>
+      </c>
+      <c r="F21" t="s">
+        <v>240</v>
+      </c>
+      <c r="G21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>242</v>
+      </c>
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" t="s">
+        <v>245</v>
+      </c>
+      <c r="E22" t="s">
+        <v>246</v>
+      </c>
+      <c r="F22" t="s">
+        <v>247</v>
+      </c>
+      <c r="G22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>249</v>
+      </c>
+      <c r="B23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F23" t="s">
+        <v>253</v>
+      </c>
+      <c r="G23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>255</v>
+      </c>
+      <c r="B24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" t="s">
+        <v>258</v>
+      </c>
+      <c r="E24" t="s">
+        <v>259</v>
+      </c>
+      <c r="F24" t="s">
+        <v>260</v>
+      </c>
+      <c r="G24" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>262</v>
+      </c>
+      <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" t="s">
+        <v>264</v>
+      </c>
+      <c r="E25" t="s">
+        <v>265</v>
+      </c>
+      <c r="F25" t="s">
+        <v>266</v>
+      </c>
+      <c r="G25" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>268</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" t="s">
+        <v>271</v>
+      </c>
+      <c r="E26" t="s">
+        <v>272</v>
+      </c>
+      <c r="F26" t="s">
+        <v>273</v>
+      </c>
+      <c r="G26" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>275</v>
+      </c>
+      <c r="B27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" t="s">
+        <v>278</v>
+      </c>
+      <c r="E27" t="s">
+        <v>279</v>
+      </c>
+      <c r="F27" t="s">
+        <v>280</v>
+      </c>
+      <c r="G27" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>282</v>
+      </c>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" t="s">
+        <v>285</v>
+      </c>
+      <c r="E28" t="s">
+        <v>286</v>
+      </c>
+      <c r="F28" t="s">
+        <v>287</v>
+      </c>
+      <c r="G28" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>289</v>
+      </c>
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" t="s">
+        <v>292</v>
+      </c>
+      <c r="E29" t="s">
+        <v>293</v>
+      </c>
+      <c r="F29" t="s">
+        <v>294</v>
+      </c>
+      <c r="G29" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>296</v>
+      </c>
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" t="s">
+        <v>299</v>
+      </c>
+      <c r="E30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F30" t="s">
+        <v>301</v>
+      </c>
+      <c r="G30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>303</v>
+      </c>
+      <c r="B31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" t="s">
+        <v>306</v>
+      </c>
+      <c r="E31" t="s">
+        <v>307</v>
+      </c>
+      <c r="F31" t="s">
+        <v>308</v>
+      </c>
+      <c r="G31" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>310</v>
+      </c>
+      <c r="B32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" t="s">
+        <v>312</v>
+      </c>
+      <c r="E32" t="s">
+        <v>313</v>
+      </c>
+      <c r="F32" t="s">
+        <v>314</v>
+      </c>
+      <c r="G32" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>316</v>
+      </c>
+      <c r="B33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" t="s">
+        <v>319</v>
+      </c>
+      <c r="E33" t="s">
+        <v>320</v>
+      </c>
+      <c r="F33" t="s">
+        <v>321</v>
+      </c>
+      <c r="G33" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>323</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" t="s">
+        <v>326</v>
+      </c>
+      <c r="E34" t="s">
+        <v>327</v>
+      </c>
+      <c r="F34" t="s">
+        <v>328</v>
+      </c>
+      <c r="G34" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>330</v>
+      </c>
+      <c r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" t="s">
+        <v>333</v>
+      </c>
+      <c r="E35" t="s">
+        <v>334</v>
+      </c>
+      <c r="F35" t="s">
+        <v>335</v>
+      </c>
+      <c r="G35" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>337</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" t="s">
+        <v>340</v>
+      </c>
+      <c r="E36" t="s">
+        <v>341</v>
+      </c>
+      <c r="F36" t="s">
+        <v>342</v>
+      </c>
+      <c r="G36" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>344</v>
+      </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" t="s">
+        <v>347</v>
+      </c>
+      <c r="E37" t="s">
+        <v>348</v>
+      </c>
+      <c r="F37" t="s">
+        <v>349</v>
+      </c>
+      <c r="G37" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>351</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" t="s">
+        <v>354</v>
+      </c>
+      <c r="E38" t="s">
+        <v>355</v>
+      </c>
+      <c r="F38" t="s">
+        <v>356</v>
+      </c>
+      <c r="G38" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>358</v>
+      </c>
+      <c r="B39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" t="s">
+        <v>361</v>
+      </c>
+      <c r="E39" t="s">
+        <v>362</v>
+      </c>
+      <c r="F39" t="s">
+        <v>363</v>
+      </c>
+      <c r="G39" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>365</v>
+      </c>
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" t="s">
+        <v>368</v>
+      </c>
+      <c r="E40" t="s">
+        <v>369</v>
+      </c>
+      <c r="F40" t="s">
+        <v>370</v>
+      </c>
+      <c r="G40" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>372</v>
+      </c>
+      <c r="B41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" t="s">
+        <v>374</v>
+      </c>
+      <c r="E41" t="s">
+        <v>375</v>
+      </c>
+      <c r="F41" t="s">
+        <v>376</v>
+      </c>
+      <c r="G41" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>378</v>
+      </c>
+      <c r="B42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" t="s">
+        <v>381</v>
+      </c>
+      <c r="E42" t="s">
+        <v>382</v>
+      </c>
+      <c r="F42" t="s">
+        <v>383</v>
+      </c>
+      <c r="G42" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>385</v>
+      </c>
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" t="s">
+        <v>388</v>
+      </c>
+      <c r="E43" t="s">
+        <v>389</v>
+      </c>
+      <c r="F43" t="s">
+        <v>390</v>
+      </c>
+      <c r="G43" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>392</v>
+      </c>
+      <c r="B44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" t="s">
+        <v>394</v>
+      </c>
+      <c r="E44" t="s">
+        <v>395</v>
+      </c>
+      <c r="F44" t="s">
+        <v>396</v>
+      </c>
+      <c r="G44" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>397</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" t="s">
+        <v>400</v>
+      </c>
+      <c r="E45" t="s">
+        <v>401</v>
+      </c>
+      <c r="F45" t="s">
+        <v>402</v>
+      </c>
+      <c r="G45" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>404</v>
+      </c>
+      <c r="B46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" t="s">
+        <v>407</v>
+      </c>
+      <c r="E46" t="s">
+        <v>408</v>
+      </c>
+      <c r="F46" t="s">
+        <v>409</v>
+      </c>
+      <c r="G46" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>396</v>
+      </c>
+      <c r="B47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47" t="s">
+        <v>412</v>
+      </c>
+      <c r="E47" t="s">
+        <v>413</v>
+      </c>
+      <c r="F47" t="s">
+        <v>414</v>
+      </c>
+      <c r="G47" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>416</v>
+      </c>
+      <c r="B48" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" t="s">
+        <v>419</v>
+      </c>
+      <c r="E48" t="s">
+        <v>420</v>
+      </c>
+      <c r="F48" t="s">
+        <v>421</v>
+      </c>
+      <c r="G48" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>423</v>
+      </c>
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" t="s">
+        <v>425</v>
+      </c>
+      <c r="E49" t="s">
+        <v>426</v>
+      </c>
+      <c r="F49" t="s">
+        <v>427</v>
+      </c>
+      <c r="G49" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>429</v>
+      </c>
+      <c r="B50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50" t="s">
+        <v>432</v>
+      </c>
+      <c r="E50" t="s">
+        <v>433</v>
+      </c>
+      <c r="F50" t="s">
+        <v>434</v>
+      </c>
+      <c r="G50" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>436</v>
+      </c>
+      <c r="B51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51" t="s">
+        <v>438</v>
+      </c>
+      <c r="E51" t="s">
+        <v>439</v>
+      </c>
+      <c r="F51" t="s">
+        <v>46</v>
+      </c>
+      <c r="G51" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>441</v>
+      </c>
+      <c r="B52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" t="s">
+        <v>168</v>
+      </c>
+      <c r="D52" t="s">
+        <v>444</v>
+      </c>
+      <c r="E52" t="s">
+        <v>445</v>
+      </c>
+      <c r="F52" t="s">
+        <v>446</v>
+      </c>
+      <c r="G52" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>448</v>
+      </c>
+      <c r="B53" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" t="s">
+        <v>451</v>
+      </c>
+      <c r="E53" t="s">
+        <v>452</v>
+      </c>
+      <c r="F53" t="s">
+        <v>453</v>
+      </c>
+      <c r="G53" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>455</v>
+      </c>
+      <c r="B54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" t="s">
+        <v>141</v>
+      </c>
+      <c r="D54" t="s">
+        <v>456</v>
+      </c>
+      <c r="E54" t="s">
+        <v>457</v>
+      </c>
+      <c r="F54" t="s">
+        <v>458</v>
+      </c>
+      <c r="G54" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>438</v>
+      </c>
+      <c r="B55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" t="s">
+        <v>462</v>
+      </c>
+      <c r="E55" t="s">
+        <v>463</v>
+      </c>
+      <c r="F55" t="s">
+        <v>464</v>
+      </c>
+      <c r="G55" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>466</v>
+      </c>
+      <c r="B56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" t="s">
+        <v>469</v>
+      </c>
+      <c r="E56" t="s">
+        <v>470</v>
+      </c>
+      <c r="F56" t="s">
+        <v>471</v>
+      </c>
+      <c r="G56" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>473</v>
+      </c>
+      <c r="B57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57" t="s">
+        <v>476</v>
+      </c>
+      <c r="E57" t="s">
+        <v>477</v>
+      </c>
+      <c r="F57" t="s">
+        <v>478</v>
+      </c>
+      <c r="G57" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>480</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" t="s">
+        <v>160</v>
+      </c>
+      <c r="D58" t="s">
+        <v>482</v>
+      </c>
+      <c r="E58" t="s">
+        <v>483</v>
+      </c>
+      <c r="F58" t="s">
+        <v>484</v>
+      </c>
+      <c r="G58" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>486</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" t="s">
+        <v>161</v>
+      </c>
+      <c r="D59" t="s">
+        <v>489</v>
+      </c>
+      <c r="E59" t="s">
+        <v>490</v>
+      </c>
+      <c r="F59" t="s">
+        <v>491</v>
+      </c>
+      <c r="G59" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>493</v>
+      </c>
+      <c r="B60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60" t="s">
+        <v>268</v>
+      </c>
+      <c r="E60" t="s">
+        <v>496</v>
+      </c>
+      <c r="F60" t="s">
+        <v>497</v>
+      </c>
+      <c r="G60" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>499</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61" t="s">
+        <v>502</v>
+      </c>
+      <c r="E61" t="s">
+        <v>503</v>
+      </c>
+      <c r="F61" t="s">
+        <v>504</v>
+      </c>
+      <c r="G61" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>506</v>
+      </c>
+      <c r="B62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" t="s">
+        <v>508</v>
+      </c>
+      <c r="E62" t="s">
+        <v>509</v>
+      </c>
+      <c r="F62" t="s">
+        <v>510</v>
+      </c>
+      <c r="G62" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>512</v>
+      </c>
+      <c r="B63" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" t="s">
+        <v>170</v>
+      </c>
+      <c r="D63" t="s">
+        <v>515</v>
+      </c>
+      <c r="E63" t="s">
+        <v>516</v>
+      </c>
+      <c r="F63" t="s">
+        <v>517</v>
+      </c>
+      <c r="G63" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>519</v>
+      </c>
+      <c r="B64" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" t="s">
+        <v>522</v>
+      </c>
+      <c r="E64" t="s">
+        <v>523</v>
+      </c>
+      <c r="F64" t="s">
+        <v>524</v>
+      </c>
+      <c r="G64" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>525</v>
+      </c>
+      <c r="B65" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" t="s">
+        <v>172</v>
+      </c>
+      <c r="D65" t="s">
+        <v>528</v>
+      </c>
+      <c r="E65" t="s">
+        <v>529</v>
+      </c>
+      <c r="F65" t="s">
+        <v>530</v>
+      </c>
+      <c r="G65" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>532</v>
+      </c>
+      <c r="B66" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" t="s">
+        <v>534</v>
+      </c>
+      <c r="E66" t="s">
+        <v>535</v>
+      </c>
+      <c r="F66" t="s">
+        <v>536</v>
+      </c>
+      <c r="G66" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>538</v>
+      </c>
+      <c r="B67" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" t="s">
+        <v>173</v>
+      </c>
+      <c r="D67" t="s">
+        <v>541</v>
+      </c>
+      <c r="E67" t="s">
+        <v>319</v>
+      </c>
+      <c r="F67" t="s">
+        <v>542</v>
+      </c>
+      <c r="G67" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>544</v>
+      </c>
+      <c r="B68" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" t="s">
+        <v>145</v>
+      </c>
+      <c r="D68" t="s">
+        <v>546</v>
+      </c>
+      <c r="E68" t="s">
+        <v>547</v>
+      </c>
+      <c r="F68" t="s">
+        <v>548</v>
+      </c>
+      <c r="G68" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>550</v>
+      </c>
+      <c r="B69" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" t="s">
+        <v>174</v>
+      </c>
+      <c r="D69" t="s">
+        <v>553</v>
+      </c>
+      <c r="E69" t="s">
+        <v>554</v>
+      </c>
+      <c r="F69" t="s">
+        <v>555</v>
+      </c>
+      <c r="G69" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>557</v>
+      </c>
+      <c r="B70" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" t="s">
+        <v>175</v>
+      </c>
+      <c r="D70" t="s">
+        <v>559</v>
+      </c>
+      <c r="E70" t="s">
+        <v>560</v>
+      </c>
+      <c r="F70" t="s">
+        <v>561</v>
+      </c>
+      <c r="G70" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>563</v>
+      </c>
+      <c r="B71" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" t="s">
+        <v>165</v>
+      </c>
+      <c r="D71" t="s">
+        <v>566</v>
+      </c>
+      <c r="E71" t="s">
+        <v>402</v>
+      </c>
+      <c r="F71" t="s">
+        <v>567</v>
+      </c>
+      <c r="G71" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>569</v>
+      </c>
+      <c r="B72" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" t="s">
+        <v>176</v>
+      </c>
+      <c r="D72" t="s">
+        <v>570</v>
+      </c>
+      <c r="E72" t="s">
+        <v>374</v>
+      </c>
+      <c r="F72" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>573</v>
+      </c>
+      <c r="B73" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" t="s">
+        <v>166</v>
+      </c>
+      <c r="D73" t="s">
+        <v>576</v>
+      </c>
+      <c r="E73" t="s">
+        <v>577</v>
+      </c>
+      <c r="F73" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>580</v>
+      </c>
+      <c r="B74" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" t="s">
+        <v>166</v>
+      </c>
+      <c r="D74" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>118</v>
+      </c>
+      <c r="C76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>132</v>
+      </c>
+      <c r="C78" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>133</v>
+      </c>
+      <c r="C79" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>117</v>
+      </c>
+      <c r="C80" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>133</v>
+      </c>
+      <c r="C83" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>134</v>
+      </c>
+      <c r="C84" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>125</v>
+      </c>
+      <c r="C86" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>135</v>
+      </c>
+      <c r="C87" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="s">
+        <v>181</v>
+      </c>
+      <c r="C88" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="s">
+        <v>188</v>
+      </c>
+      <c r="C89" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="s">
+        <v>195</v>
+      </c>
+      <c r="C90" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="s">
+        <v>202</v>
+      </c>
+      <c r="C91" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="s">
+        <v>209</v>
+      </c>
+      <c r="C92" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="s">
+        <v>216</v>
+      </c>
+      <c r="C93" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="s">
+        <v>223</v>
+      </c>
+      <c r="C94" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="s">
+        <v>230</v>
+      </c>
+      <c r="C95" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="s">
+        <v>236</v>
+      </c>
+      <c r="C96" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" t="s">
+        <v>243</v>
+      </c>
+      <c r="C97" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C98" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="s">
+        <v>256</v>
+      </c>
+      <c r="C99" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" t="s">
+        <v>263</v>
+      </c>
+      <c r="C100" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="s">
+        <v>269</v>
+      </c>
+      <c r="C101" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="s">
+        <v>276</v>
+      </c>
+      <c r="C102" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="s">
+        <v>283</v>
+      </c>
+      <c r="C103" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="s">
+        <v>290</v>
+      </c>
+      <c r="C104" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="s">
+        <v>297</v>
+      </c>
+      <c r="C105" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="s">
+        <v>304</v>
+      </c>
+      <c r="C106" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="s">
+        <v>236</v>
+      </c>
+      <c r="C107" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="s">
+        <v>317</v>
+      </c>
+      <c r="C108" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" t="s">
+        <v>324</v>
+      </c>
+      <c r="C109" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="s">
+        <v>331</v>
+      </c>
+      <c r="C110" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="s">
+        <v>338</v>
+      </c>
+      <c r="C111" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" t="s">
+        <v>345</v>
+      </c>
+      <c r="C112" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="s">
+        <v>352</v>
+      </c>
+      <c r="C113" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="s">
+        <v>359</v>
+      </c>
+      <c r="C114" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" t="s">
+        <v>366</v>
+      </c>
+      <c r="C115" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="s">
+        <v>366</v>
+      </c>
+      <c r="C116" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" t="s">
+        <v>379</v>
+      </c>
+      <c r="C117" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" t="s">
+        <v>386</v>
+      </c>
+      <c r="C118" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" t="s">
+        <v>393</v>
+      </c>
+      <c r="C119" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" t="s">
+        <v>398</v>
+      </c>
+      <c r="C120" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" t="s">
+        <v>405</v>
+      </c>
+      <c r="C121" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" t="s">
+        <v>411</v>
+      </c>
+      <c r="C122" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" t="s">
+        <v>417</v>
+      </c>
+      <c r="C123" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" t="s">
+        <v>339</v>
+      </c>
+      <c r="C124" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" t="s">
+        <v>430</v>
+      </c>
+      <c r="C125" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" t="s">
+        <v>437</v>
+      </c>
+      <c r="C126" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" t="s">
+        <v>442</v>
+      </c>
+      <c r="C127" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" t="s">
+        <v>449</v>
+      </c>
+      <c r="C128" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" t="s">
+        <v>325</v>
+      </c>
+      <c r="C129" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" t="s">
+        <v>460</v>
+      </c>
+      <c r="C130" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" t="s">
+        <v>467</v>
+      </c>
+      <c r="C131" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" t="s">
+        <v>474</v>
+      </c>
+      <c r="C132" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" t="s">
+        <v>196</v>
+      </c>
+      <c r="C133" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" t="s">
+        <v>487</v>
+      </c>
+      <c r="C134" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" t="s">
+        <v>494</v>
+      </c>
+      <c r="C135" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" t="s">
+        <v>500</v>
+      </c>
+      <c r="C136" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" t="s">
+        <v>507</v>
+      </c>
+      <c r="C137" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" t="s">
+        <v>513</v>
+      </c>
+      <c r="C138" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" t="s">
+        <v>520</v>
+      </c>
+      <c r="C139" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" t="s">
+        <v>526</v>
+      </c>
+      <c r="C140" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" t="s">
+        <v>79</v>
+      </c>
+      <c r="C141" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" t="s">
+        <v>539</v>
+      </c>
+      <c r="C142" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" t="s">
+        <v>545</v>
+      </c>
+      <c r="C143" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" t="s">
+        <v>551</v>
+      </c>
+      <c r="C144" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="B145" t="s">
+        <v>558</v>
+      </c>
+      <c r="C145" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" t="s">
+        <v>564</v>
+      </c>
+      <c r="C146" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" t="s">
+        <v>353</v>
+      </c>
+      <c r="C147" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148" t="s">
+        <v>574</v>
+      </c>
+      <c r="C148" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" t="s">
+        <v>581</v>
+      </c>
+      <c r="C149" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="C150" t="s">
+        <v>582</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/stats/page_load_times.xlsx
+++ b/stats/page_load_times.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="739">
   <si>
     <t>https://www.tutorialspoint.com/</t>
   </si>
@@ -1771,6 +1771,471 @@
   </si>
   <si>
     <t>30597</t>
+  </si>
+  <si>
+    <t>6788</t>
+  </si>
+  <si>
+    <t>10725</t>
+  </si>
+  <si>
+    <t>3653</t>
+  </si>
+  <si>
+    <t>8167</t>
+  </si>
+  <si>
+    <t>1215</t>
+  </si>
+  <si>
+    <t>1397</t>
+  </si>
+  <si>
+    <t>35649</t>
+  </si>
+  <si>
+    <t>6430</t>
+  </si>
+  <si>
+    <t>12616</t>
+  </si>
+  <si>
+    <t>3156</t>
+  </si>
+  <si>
+    <t>7057</t>
+  </si>
+  <si>
+    <t>1212</t>
+  </si>
+  <si>
+    <t>28236</t>
+  </si>
+  <si>
+    <t>5574</t>
+  </si>
+  <si>
+    <t>7540</t>
+  </si>
+  <si>
+    <t>2940</t>
+  </si>
+  <si>
+    <t>6565</t>
+  </si>
+  <si>
+    <t>1144</t>
+  </si>
+  <si>
+    <t>1115</t>
+  </si>
+  <si>
+    <t>30461</t>
+  </si>
+  <si>
+    <t>7484</t>
+  </si>
+  <si>
+    <t>11017</t>
+  </si>
+  <si>
+    <t>3126</t>
+  </si>
+  <si>
+    <t>7096</t>
+  </si>
+  <si>
+    <t>1148</t>
+  </si>
+  <si>
+    <t>31648</t>
+  </si>
+  <si>
+    <t>6894</t>
+  </si>
+  <si>
+    <t>10626</t>
+  </si>
+  <si>
+    <t>2868</t>
+  </si>
+  <si>
+    <t>7260</t>
+  </si>
+  <si>
+    <t>1139</t>
+  </si>
+  <si>
+    <t>1688</t>
+  </si>
+  <si>
+    <t>31758</t>
+  </si>
+  <si>
+    <t>7701</t>
+  </si>
+  <si>
+    <t>14761</t>
+  </si>
+  <si>
+    <t>2889</t>
+  </si>
+  <si>
+    <t>6929</t>
+  </si>
+  <si>
+    <t>1155</t>
+  </si>
+  <si>
+    <t>1405</t>
+  </si>
+  <si>
+    <t>6978</t>
+  </si>
+  <si>
+    <t>6621</t>
+  </si>
+  <si>
+    <t>9976</t>
+  </si>
+  <si>
+    <t>4178</t>
+  </si>
+  <si>
+    <t>7037</t>
+  </si>
+  <si>
+    <t>670</t>
+  </si>
+  <si>
+    <t>1086</t>
+  </si>
+  <si>
+    <t>28547</t>
+  </si>
+  <si>
+    <t>6803</t>
+  </si>
+  <si>
+    <t>14722</t>
+  </si>
+  <si>
+    <t>3164</t>
+  </si>
+  <si>
+    <t>6725</t>
+  </si>
+  <si>
+    <t>1231</t>
+  </si>
+  <si>
+    <t>33078</t>
+  </si>
+  <si>
+    <t>5901</t>
+  </si>
+  <si>
+    <t>12735</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>1444</t>
+  </si>
+  <si>
+    <t>32355</t>
+  </si>
+  <si>
+    <t>6152</t>
+  </si>
+  <si>
+    <t>10624</t>
+  </si>
+  <si>
+    <t>3235</t>
+  </si>
+  <si>
+    <t>7843</t>
+  </si>
+  <si>
+    <t>1239</t>
+  </si>
+  <si>
+    <t>1257</t>
+  </si>
+  <si>
+    <t>57126</t>
+  </si>
+  <si>
+    <t>18273</t>
+  </si>
+  <si>
+    <t>12303</t>
+  </si>
+  <si>
+    <t>2881</t>
+  </si>
+  <si>
+    <t>8204</t>
+  </si>
+  <si>
+    <t>1399</t>
+  </si>
+  <si>
+    <t>1463</t>
+  </si>
+  <si>
+    <t>35321</t>
+  </si>
+  <si>
+    <t>6938</t>
+  </si>
+  <si>
+    <t>14278</t>
+  </si>
+  <si>
+    <t>4024</t>
+  </si>
+  <si>
+    <t>7634</t>
+  </si>
+  <si>
+    <t>10517</t>
+  </si>
+  <si>
+    <t>1572</t>
+  </si>
+  <si>
+    <t>43532</t>
+  </si>
+  <si>
+    <t>10646</t>
+  </si>
+  <si>
+    <t>12004</t>
+  </si>
+  <si>
+    <t>3530</t>
+  </si>
+  <si>
+    <t>7303</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>1510</t>
+  </si>
+  <si>
+    <t>36931</t>
+  </si>
+  <si>
+    <t>8746</t>
+  </si>
+  <si>
+    <t>10911</t>
+  </si>
+  <si>
+    <t>2747</t>
+  </si>
+  <si>
+    <t>7366</t>
+  </si>
+  <si>
+    <t>1201</t>
+  </si>
+  <si>
+    <t>5763</t>
+  </si>
+  <si>
+    <t>1207</t>
+  </si>
+  <si>
+    <t>1677</t>
+  </si>
+  <si>
+    <t>34413</t>
+  </si>
+  <si>
+    <t>9276</t>
+  </si>
+  <si>
+    <t>11686</t>
+  </si>
+  <si>
+    <t>3255</t>
+  </si>
+  <si>
+    <t>7887</t>
+  </si>
+  <si>
+    <t>1326</t>
+  </si>
+  <si>
+    <t>6049</t>
+  </si>
+  <si>
+    <t>6290</t>
+  </si>
+  <si>
+    <t>8447</t>
+  </si>
+  <si>
+    <t>2191</t>
+  </si>
+  <si>
+    <t>7204</t>
+  </si>
+  <si>
+    <t>673</t>
+  </si>
+  <si>
+    <t>1178</t>
+  </si>
+  <si>
+    <t>33304</t>
+  </si>
+  <si>
+    <t>6224</t>
+  </si>
+  <si>
+    <t>11497</t>
+  </si>
+  <si>
+    <t>3350</t>
+  </si>
+  <si>
+    <t>6771</t>
+  </si>
+  <si>
+    <t>1639</t>
+  </si>
+  <si>
+    <t>34199</t>
+  </si>
+  <si>
+    <t>5536</t>
+  </si>
+  <si>
+    <t>6623</t>
+  </si>
+  <si>
+    <t>3500</t>
+  </si>
+  <si>
+    <t>7762</t>
+  </si>
+  <si>
+    <t>31098</t>
+  </si>
+  <si>
+    <t>26805</t>
+  </si>
+  <si>
+    <t>10522</t>
+  </si>
+  <si>
+    <t>2421</t>
+  </si>
+  <si>
+    <t>1140</t>
+  </si>
+  <si>
+    <t>1206</t>
+  </si>
+  <si>
+    <t>32361</t>
+  </si>
+  <si>
+    <t>11023</t>
+  </si>
+  <si>
+    <t>20804</t>
+  </si>
+  <si>
+    <t>3310</t>
+  </si>
+  <si>
+    <t>7338</t>
+  </si>
+  <si>
+    <t>433</t>
+  </si>
+  <si>
+    <t>1205</t>
+  </si>
+  <si>
+    <t>7498</t>
+  </si>
+  <si>
+    <t>5597</t>
+  </si>
+  <si>
+    <t>13723</t>
+  </si>
+  <si>
+    <t>4246</t>
+  </si>
+  <si>
+    <t>10976</t>
+  </si>
+  <si>
+    <t>1295</t>
+  </si>
+  <si>
+    <t>34033</t>
+  </si>
+  <si>
+    <t>5043</t>
+  </si>
+  <si>
+    <t>8877</t>
+  </si>
+  <si>
+    <t>2468</t>
+  </si>
+  <si>
+    <t>19965</t>
+  </si>
+  <si>
+    <t>998</t>
+  </si>
+  <si>
+    <t>1446</t>
+  </si>
+  <si>
+    <t>42417</t>
+  </si>
+  <si>
+    <t>25737</t>
+  </si>
+  <si>
+    <t>10836</t>
+  </si>
+  <si>
+    <t>3582</t>
+  </si>
+  <si>
+    <t>9834</t>
+  </si>
+  <si>
+    <t>1192</t>
+  </si>
+  <si>
+    <t>1496</t>
+  </si>
+  <si>
+    <t>34228</t>
+  </si>
+  <si>
+    <t>6791</t>
+  </si>
+  <si>
+    <t>14078</t>
+  </si>
+  <si>
+    <t>5149</t>
   </si>
 </sst>
 </file>
@@ -2145,7 +2610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:H173"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
@@ -3815,6 +4280,9 @@
       <c r="F72" t="s">
         <v>571</v>
       </c>
+      <c r="G72" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -3835,6 +4303,9 @@
       <c r="F73" t="s">
         <v>578</v>
       </c>
+      <c r="G73" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -3849,192 +4320,543 @@
       <c r="D74" t="s">
         <v>583</v>
       </c>
+      <c r="E74" t="s">
+        <v>584</v>
+      </c>
+      <c r="F74" t="s">
+        <v>585</v>
+      </c>
+      <c r="G74" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>587</v>
+      </c>
       <c r="B75" t="s">
         <v>109</v>
       </c>
       <c r="C75" t="s">
         <v>160</v>
       </c>
+      <c r="D75" t="s">
+        <v>590</v>
+      </c>
+      <c r="E75" t="s">
+        <v>591</v>
+      </c>
+      <c r="F75" t="s">
+        <v>592</v>
+      </c>
+      <c r="G75" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>594</v>
+      </c>
       <c r="B76" t="s">
         <v>118</v>
       </c>
       <c r="C76" t="s">
         <v>105</v>
       </c>
+      <c r="D76" t="s">
+        <v>596</v>
+      </c>
+      <c r="E76" t="s">
+        <v>597</v>
+      </c>
+      <c r="F76" t="s">
+        <v>598</v>
+      </c>
+      <c r="G76" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>600</v>
+      </c>
       <c r="B77" t="s">
         <v>91</v>
       </c>
       <c r="C77" t="s">
         <v>153</v>
       </c>
+      <c r="D77" t="s">
+        <v>603</v>
+      </c>
+      <c r="E77" t="s">
+        <v>604</v>
+      </c>
+      <c r="F77" t="s">
+        <v>605</v>
+      </c>
+      <c r="G77" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>607</v>
+      </c>
       <c r="B78" t="s">
         <v>132</v>
       </c>
       <c r="C78" t="s">
         <v>152</v>
       </c>
+      <c r="D78" t="s">
+        <v>609</v>
+      </c>
+      <c r="E78" t="s">
+        <v>610</v>
+      </c>
+      <c r="F78" t="s">
+        <v>611</v>
+      </c>
+      <c r="G78" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>613</v>
+      </c>
       <c r="B79" t="s">
         <v>133</v>
       </c>
       <c r="C79" t="s">
         <v>152</v>
       </c>
+      <c r="D79" t="s">
+        <v>616</v>
+      </c>
+      <c r="E79" t="s">
+        <v>617</v>
+      </c>
+      <c r="F79" t="s">
+        <v>618</v>
+      </c>
+      <c r="G79" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>620</v>
+      </c>
       <c r="B80" t="s">
         <v>117</v>
       </c>
       <c r="C80" t="s">
         <v>152</v>
       </c>
+      <c r="D80" t="s">
+        <v>623</v>
+      </c>
+      <c r="E80" t="s">
+        <v>624</v>
+      </c>
+      <c r="F80" t="s">
+        <v>625</v>
+      </c>
+      <c r="G80" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>627</v>
+      </c>
       <c r="B81" t="s">
         <v>122</v>
       </c>
       <c r="C81" t="s">
         <v>172</v>
       </c>
+      <c r="D81" t="s">
+        <v>630</v>
+      </c>
+      <c r="E81" t="s">
+        <v>631</v>
+      </c>
+      <c r="F81" t="s">
+        <v>632</v>
+      </c>
+      <c r="G81" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>634</v>
+      </c>
       <c r="B82" t="s">
         <v>125</v>
       </c>
       <c r="C82" t="s">
         <v>146</v>
       </c>
+      <c r="D82" t="s">
+        <v>636</v>
+      </c>
+      <c r="E82" t="s">
+        <v>637</v>
+      </c>
+      <c r="F82" t="s">
+        <v>638</v>
+      </c>
+      <c r="G82" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>330</v>
+      </c>
       <c r="B83" t="s">
         <v>133</v>
       </c>
       <c r="C83" t="s">
         <v>156</v>
       </c>
+      <c r="D83" t="s">
+        <v>641</v>
+      </c>
+      <c r="E83" t="s">
+        <v>642</v>
+      </c>
+      <c r="F83" t="s">
+        <v>643</v>
+      </c>
+      <c r="G83" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>645</v>
+      </c>
       <c r="B84" t="s">
         <v>134</v>
       </c>
       <c r="C84" t="s">
         <v>156</v>
       </c>
+      <c r="D84" t="s">
+        <v>648</v>
+      </c>
+      <c r="E84" t="s">
+        <v>649</v>
+      </c>
+      <c r="F84" t="s">
+        <v>650</v>
+      </c>
+      <c r="G84" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>652</v>
+      </c>
       <c r="B85" t="s">
         <v>89</v>
       </c>
       <c r="C85" t="s">
         <v>139</v>
       </c>
+      <c r="D85" t="s">
+        <v>655</v>
+      </c>
+      <c r="E85" t="s">
+        <v>656</v>
+      </c>
+      <c r="F85" t="s">
+        <v>657</v>
+      </c>
+      <c r="G85" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>659</v>
+      </c>
       <c r="B86" t="s">
         <v>125</v>
       </c>
       <c r="C86" t="s">
         <v>177</v>
       </c>
+      <c r="D86" t="s">
+        <v>662</v>
+      </c>
+      <c r="E86" t="s">
+        <v>663</v>
+      </c>
+      <c r="F86" t="s">
+        <v>664</v>
+      </c>
+      <c r="G86" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>666</v>
+      </c>
       <c r="B87" t="s">
         <v>135</v>
       </c>
       <c r="C87" t="s">
         <v>106</v>
       </c>
+      <c r="D87" t="s">
+        <v>669</v>
+      </c>
+      <c r="E87" t="s">
+        <v>670</v>
+      </c>
+      <c r="F87" t="s">
+        <v>671</v>
+      </c>
+      <c r="G87" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="88">
+      <c r="A88" t="s">
+        <v>673</v>
+      </c>
       <c r="B88" t="s">
         <v>181</v>
       </c>
       <c r="C88" t="s">
         <v>178</v>
       </c>
+      <c r="D88" t="s">
+        <v>678</v>
+      </c>
+      <c r="E88" t="s">
+        <v>679</v>
+      </c>
+      <c r="F88" t="s">
+        <v>680</v>
+      </c>
+      <c r="G88" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="89">
+      <c r="A89" t="s">
+        <v>675</v>
+      </c>
       <c r="B89" t="s">
         <v>188</v>
       </c>
       <c r="C89" t="s">
         <v>182</v>
       </c>
+      <c r="D89" t="s">
+        <v>684</v>
+      </c>
+      <c r="E89" t="s">
+        <v>685</v>
+      </c>
+      <c r="F89" t="s">
+        <v>686</v>
+      </c>
+      <c r="G89" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="90">
+      <c r="A90" t="s">
+        <v>682</v>
+      </c>
       <c r="B90" t="s">
         <v>195</v>
       </c>
       <c r="C90" t="s">
         <v>189</v>
       </c>
+      <c r="D90" t="s">
+        <v>691</v>
+      </c>
+      <c r="E90" t="s">
+        <v>692</v>
+      </c>
+      <c r="F90" t="s">
+        <v>693</v>
+      </c>
+      <c r="G90" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="91">
+      <c r="A91" t="s">
+        <v>688</v>
+      </c>
       <c r="B91" t="s">
         <v>202</v>
       </c>
       <c r="C91" t="s">
         <v>196</v>
       </c>
+      <c r="D91" t="s">
+        <v>697</v>
+      </c>
+      <c r="E91" t="s">
+        <v>698</v>
+      </c>
+      <c r="F91" t="s">
+        <v>699</v>
+      </c>
+      <c r="G91" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="92">
+      <c r="A92" t="s">
+        <v>695</v>
+      </c>
       <c r="B92" t="s">
         <v>209</v>
       </c>
       <c r="C92" t="s">
         <v>203</v>
       </c>
+      <c r="D92" t="s">
+        <v>702</v>
+      </c>
+      <c r="E92" t="s">
+        <v>703</v>
+      </c>
+      <c r="F92" t="s">
+        <v>704</v>
+      </c>
+      <c r="G92" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="93">
+      <c r="A93" t="s">
+        <v>701</v>
+      </c>
       <c r="B93" t="s">
         <v>216</v>
       </c>
       <c r="C93" t="s">
         <v>210</v>
       </c>
+      <c r="D93" t="s">
+        <v>708</v>
+      </c>
+      <c r="E93" t="s">
+        <v>709</v>
+      </c>
+      <c r="F93" t="s">
+        <v>710</v>
+      </c>
+      <c r="G93" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="94">
+      <c r="A94" t="s">
+        <v>438</v>
+      </c>
       <c r="B94" t="s">
         <v>223</v>
       </c>
       <c r="C94" t="s">
         <v>217</v>
       </c>
+      <c r="D94" t="s">
+        <v>715</v>
+      </c>
+      <c r="E94" t="s">
+        <v>716</v>
+      </c>
+      <c r="F94" t="s">
+        <v>717</v>
+      </c>
+      <c r="G94" t="s">
+        <v>731</v>
+      </c>
     </row>
     <row r="95">
+      <c r="A95" t="s">
+        <v>712</v>
+      </c>
       <c r="B95" t="s">
         <v>230</v>
       </c>
       <c r="C95" t="s">
         <v>224</v>
       </c>
+      <c r="D95" t="s">
+        <v>721</v>
+      </c>
+      <c r="E95" t="s">
+        <v>722</v>
+      </c>
+      <c r="F95" t="s">
+        <v>723</v>
+      </c>
+      <c r="G95" t="s">
+        <v>738</v>
+      </c>
     </row>
     <row r="96">
+      <c r="A96" t="s">
+        <v>719</v>
+      </c>
       <c r="B96" t="s">
         <v>236</v>
       </c>
       <c r="C96" t="s">
         <v>231</v>
       </c>
+      <c r="D96" t="s">
+        <v>728</v>
+      </c>
+      <c r="E96" t="s">
+        <v>729</v>
+      </c>
+      <c r="F96" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="97">
+      <c r="A97" t="s">
+        <v>725</v>
+      </c>
       <c r="B97" t="s">
         <v>243</v>
       </c>
       <c r="C97" t="s">
         <v>237</v>
       </c>
+      <c r="D97" t="s">
+        <v>735</v>
+      </c>
+      <c r="E97" t="s">
+        <v>736</v>
+      </c>
+      <c r="F97" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="98">
+      <c r="A98" t="s">
+        <v>732</v>
+      </c>
       <c r="B98" t="s">
         <v>224</v>
       </c>
@@ -4451,8 +5273,195 @@
       </c>
     </row>
     <row r="150">
+      <c r="B150" t="s">
+        <v>588</v>
+      </c>
       <c r="C150" t="s">
         <v>582</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" t="s">
+        <v>595</v>
+      </c>
+      <c r="C151" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" t="s">
+        <v>601</v>
+      </c>
+      <c r="C152" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" t="s">
+        <v>608</v>
+      </c>
+      <c r="C153" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" t="s">
+        <v>614</v>
+      </c>
+      <c r="C154" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" t="s">
+        <v>621</v>
+      </c>
+      <c r="C155" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" t="s">
+        <v>628</v>
+      </c>
+      <c r="C156" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157" t="s">
+        <v>635</v>
+      </c>
+      <c r="C157" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" t="s">
+        <v>640</v>
+      </c>
+      <c r="C158" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" t="s">
+        <v>646</v>
+      </c>
+      <c r="C159" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160" t="s">
+        <v>653</v>
+      </c>
+      <c r="C160" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" t="s">
+        <v>660</v>
+      </c>
+      <c r="C161" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" t="s">
+        <v>667</v>
+      </c>
+      <c r="C162" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" t="s">
+        <v>674</v>
+      </c>
+      <c r="C163" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" t="s">
+        <v>676</v>
+      </c>
+      <c r="C164" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" t="s">
+        <v>683</v>
+      </c>
+      <c r="C165" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="B166" t="s">
+        <v>689</v>
+      </c>
+      <c r="C166" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" t="s">
+        <v>520</v>
+      </c>
+      <c r="C167" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" t="s">
+        <v>50</v>
+      </c>
+      <c r="C168" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="B169" t="s">
+        <v>706</v>
+      </c>
+      <c r="C169" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" t="s">
+        <v>713</v>
+      </c>
+      <c r="C170" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" t="s">
+        <v>513</v>
+      </c>
+      <c r="C171" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="B172" t="s">
+        <v>726</v>
+      </c>
+      <c r="C172" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" t="s">
+        <v>733</v>
+      </c>
+      <c r="C173" t="s">
+        <v>734</v>
       </c>
     </row>
   </sheetData>

--- a/stats/page_load_times.xlsx
+++ b/stats/page_load_times.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="1109">
   <si>
     <t>https://www.tutorialspoint.com/</t>
   </si>
@@ -2236,6 +2236,1116 @@
   </si>
   <si>
     <t>5149</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/</t>
+  </si>
+  <si>
+    <t>5364</t>
+  </si>
+  <si>
+    <t>https://pl.aliexpress.com/</t>
+  </si>
+  <si>
+    <t>10655</t>
+  </si>
+  <si>
+    <t>https://www.olx.pl/</t>
+  </si>
+  <si>
+    <t>7141</t>
+  </si>
+  <si>
+    <t>https://www.t-mobile.pl/</t>
+  </si>
+  <si>
+    <t>14488</t>
+  </si>
+  <si>
+    <t>4255</t>
+  </si>
+  <si>
+    <t>5944</t>
+  </si>
+  <si>
+    <t>4561</t>
+  </si>
+  <si>
+    <t>12468</t>
+  </si>
+  <si>
+    <t>3017</t>
+  </si>
+  <si>
+    <t>4977</t>
+  </si>
+  <si>
+    <t>5199</t>
+  </si>
+  <si>
+    <t>10944</t>
+  </si>
+  <si>
+    <t>13771</t>
+  </si>
+  <si>
+    <t>3858</t>
+  </si>
+  <si>
+    <t>5712</t>
+  </si>
+  <si>
+    <t>4756</t>
+  </si>
+  <si>
+    <t>13673</t>
+  </si>
+  <si>
+    <t>2961</t>
+  </si>
+  <si>
+    <t>7477</t>
+  </si>
+  <si>
+    <t>5488</t>
+  </si>
+  <si>
+    <t>13814</t>
+  </si>
+  <si>
+    <t>3461</t>
+  </si>
+  <si>
+    <t>7385</t>
+  </si>
+  <si>
+    <t>4705</t>
+  </si>
+  <si>
+    <t>5128</t>
+  </si>
+  <si>
+    <t>10601</t>
+  </si>
+  <si>
+    <t>7175</t>
+  </si>
+  <si>
+    <t>12678</t>
+  </si>
+  <si>
+    <t>3828</t>
+  </si>
+  <si>
+    <t>5660</t>
+  </si>
+  <si>
+    <t>5210</t>
+  </si>
+  <si>
+    <t>13355</t>
+  </si>
+  <si>
+    <t>2568</t>
+  </si>
+  <si>
+    <t>5715</t>
+  </si>
+  <si>
+    <t>5537</t>
+  </si>
+  <si>
+    <t>14020</t>
+  </si>
+  <si>
+    <t>3547</t>
+  </si>
+  <si>
+    <t>8489</t>
+  </si>
+  <si>
+    <t>3165</t>
+  </si>
+  <si>
+    <t>12841</t>
+  </si>
+  <si>
+    <t>3796</t>
+  </si>
+  <si>
+    <t>4493</t>
+  </si>
+  <si>
+    <t>4867</t>
+  </si>
+  <si>
+    <t>14787</t>
+  </si>
+  <si>
+    <t>2877</t>
+  </si>
+  <si>
+    <t>9468</t>
+  </si>
+  <si>
+    <t>5303</t>
+  </si>
+  <si>
+    <t>13121</t>
+  </si>
+  <si>
+    <t>2938</t>
+  </si>
+  <si>
+    <t>5869</t>
+  </si>
+  <si>
+    <t>5098</t>
+  </si>
+  <si>
+    <t>14237</t>
+  </si>
+  <si>
+    <t>3314</t>
+  </si>
+  <si>
+    <t>7374</t>
+  </si>
+  <si>
+    <t>3586</t>
+  </si>
+  <si>
+    <t>13500</t>
+  </si>
+  <si>
+    <t>3247</t>
+  </si>
+  <si>
+    <t>5398</t>
+  </si>
+  <si>
+    <t>5040</t>
+  </si>
+  <si>
+    <t>14112</t>
+  </si>
+  <si>
+    <t>3258</t>
+  </si>
+  <si>
+    <t>4885</t>
+  </si>
+  <si>
+    <t>5235</t>
+  </si>
+  <si>
+    <t>14145</t>
+  </si>
+  <si>
+    <t>3176</t>
+  </si>
+  <si>
+    <t>7237</t>
+  </si>
+  <si>
+    <t>5379</t>
+  </si>
+  <si>
+    <t>12279</t>
+  </si>
+  <si>
+    <t>2994</t>
+  </si>
+  <si>
+    <t>5841</t>
+  </si>
+  <si>
+    <t>3042</t>
+  </si>
+  <si>
+    <t>13175</t>
+  </si>
+  <si>
+    <t>2790</t>
+  </si>
+  <si>
+    <t>5137</t>
+  </si>
+  <si>
+    <t>14100</t>
+  </si>
+  <si>
+    <t>7779</t>
+  </si>
+  <si>
+    <t>5792</t>
+  </si>
+  <si>
+    <t>14425</t>
+  </si>
+  <si>
+    <t>2520</t>
+  </si>
+  <si>
+    <t>5035</t>
+  </si>
+  <si>
+    <t>4904</t>
+  </si>
+  <si>
+    <t>12152</t>
+  </si>
+  <si>
+    <t>2758</t>
+  </si>
+  <si>
+    <t>5996</t>
+  </si>
+  <si>
+    <t>5533</t>
+  </si>
+  <si>
+    <t>13224</t>
+  </si>
+  <si>
+    <t>2814</t>
+  </si>
+  <si>
+    <t>4714</t>
+  </si>
+  <si>
+    <t>4696</t>
+  </si>
+  <si>
+    <t>12552</t>
+  </si>
+  <si>
+    <t>2658</t>
+  </si>
+  <si>
+    <t>5120</t>
+  </si>
+  <si>
+    <t>4929</t>
+  </si>
+  <si>
+    <t>14329</t>
+  </si>
+  <si>
+    <t>2436</t>
+  </si>
+  <si>
+    <t>5589</t>
+  </si>
+  <si>
+    <t>4811</t>
+  </si>
+  <si>
+    <t>14453</t>
+  </si>
+  <si>
+    <t>2780</t>
+  </si>
+  <si>
+    <t>5033</t>
+  </si>
+  <si>
+    <t>5273</t>
+  </si>
+  <si>
+    <t>14309</t>
+  </si>
+  <si>
+    <t>5558</t>
+  </si>
+  <si>
+    <t>14457</t>
+  </si>
+  <si>
+    <t>7756</t>
+  </si>
+  <si>
+    <t>14067</t>
+  </si>
+  <si>
+    <t>4580</t>
+  </si>
+  <si>
+    <t>5897</t>
+  </si>
+  <si>
+    <t>4792</t>
+  </si>
+  <si>
+    <t>13079</t>
+  </si>
+  <si>
+    <t>3827</t>
+  </si>
+  <si>
+    <t>6963</t>
+  </si>
+  <si>
+    <t>6665</t>
+  </si>
+  <si>
+    <t>12233</t>
+  </si>
+  <si>
+    <t>3288</t>
+  </si>
+  <si>
+    <t>6930</t>
+  </si>
+  <si>
+    <t>5222</t>
+  </si>
+  <si>
+    <t>14477</t>
+  </si>
+  <si>
+    <t>3446</t>
+  </si>
+  <si>
+    <t>4955</t>
+  </si>
+  <si>
+    <t>13325</t>
+  </si>
+  <si>
+    <t>3283</t>
+  </si>
+  <si>
+    <t>7010</t>
+  </si>
+  <si>
+    <t>4832</t>
+  </si>
+  <si>
+    <t>14274</t>
+  </si>
+  <si>
+    <t>4920</t>
+  </si>
+  <si>
+    <t>5099</t>
+  </si>
+  <si>
+    <t>4334</t>
+  </si>
+  <si>
+    <t>12810</t>
+  </si>
+  <si>
+    <t>3387</t>
+  </si>
+  <si>
+    <t>9068</t>
+  </si>
+  <si>
+    <t>4897</t>
+  </si>
+  <si>
+    <t>15030</t>
+  </si>
+  <si>
+    <t>3760</t>
+  </si>
+  <si>
+    <t>3701</t>
+  </si>
+  <si>
+    <t>14632</t>
+  </si>
+  <si>
+    <t>3253</t>
+  </si>
+  <si>
+    <t>8126</t>
+  </si>
+  <si>
+    <t>5241</t>
+  </si>
+  <si>
+    <t>12829</t>
+  </si>
+  <si>
+    <t>3144</t>
+  </si>
+  <si>
+    <t>5051</t>
+  </si>
+  <si>
+    <t>5224</t>
+  </si>
+  <si>
+    <t>13131</t>
+  </si>
+  <si>
+    <t>2919</t>
+  </si>
+  <si>
+    <t>6918</t>
+  </si>
+  <si>
+    <t>5498</t>
+  </si>
+  <si>
+    <t>14682</t>
+  </si>
+  <si>
+    <t>2618</t>
+  </si>
+  <si>
+    <t>5642</t>
+  </si>
+  <si>
+    <t>5923</t>
+  </si>
+  <si>
+    <t>15317</t>
+  </si>
+  <si>
+    <t>2738</t>
+  </si>
+  <si>
+    <t>5463</t>
+  </si>
+  <si>
+    <t>5037</t>
+  </si>
+  <si>
+    <t>2832</t>
+  </si>
+  <si>
+    <t>7326</t>
+  </si>
+  <si>
+    <t>5071</t>
+  </si>
+  <si>
+    <t>13594</t>
+  </si>
+  <si>
+    <t>2494</t>
+  </si>
+  <si>
+    <t>6331</t>
+  </si>
+  <si>
+    <t>4549</t>
+  </si>
+  <si>
+    <t>13422</t>
+  </si>
+  <si>
+    <t>2689</t>
+  </si>
+  <si>
+    <t>4748</t>
+  </si>
+  <si>
+    <t>14060</t>
+  </si>
+  <si>
+    <t>2915</t>
+  </si>
+  <si>
+    <t>5950</t>
+  </si>
+  <si>
+    <t>4574</t>
+  </si>
+  <si>
+    <t>12683</t>
+  </si>
+  <si>
+    <t>2815</t>
+  </si>
+  <si>
+    <t>6741</t>
+  </si>
+  <si>
+    <t>5062</t>
+  </si>
+  <si>
+    <t>14007</t>
+  </si>
+  <si>
+    <t>3494</t>
+  </si>
+  <si>
+    <t>6316</t>
+  </si>
+  <si>
+    <t>5386</t>
+  </si>
+  <si>
+    <t>13813</t>
+  </si>
+  <si>
+    <t>6553</t>
+  </si>
+  <si>
+    <t>5451</t>
+  </si>
+  <si>
+    <t>11654</t>
+  </si>
+  <si>
+    <t>9015</t>
+  </si>
+  <si>
+    <t>14263</t>
+  </si>
+  <si>
+    <t>4151</t>
+  </si>
+  <si>
+    <t>8461</t>
+  </si>
+  <si>
+    <t>5283</t>
+  </si>
+  <si>
+    <t>12470</t>
+  </si>
+  <si>
+    <t>3431</t>
+  </si>
+  <si>
+    <t>7702</t>
+  </si>
+  <si>
+    <t>13240</t>
+  </si>
+  <si>
+    <t>6276</t>
+  </si>
+  <si>
+    <t>10491</t>
+  </si>
+  <si>
+    <t>5583</t>
+  </si>
+  <si>
+    <t>12039</t>
+  </si>
+  <si>
+    <t>3138</t>
+  </si>
+  <si>
+    <t>7896</t>
+  </si>
+  <si>
+    <t>7316</t>
+  </si>
+  <si>
+    <t>4083</t>
+  </si>
+  <si>
+    <t>7537</t>
+  </si>
+  <si>
+    <t>5507</t>
+  </si>
+  <si>
+    <t>14595</t>
+  </si>
+  <si>
+    <t>7844</t>
+  </si>
+  <si>
+    <t>7630</t>
+  </si>
+  <si>
+    <t>12145</t>
+  </si>
+  <si>
+    <t>3213</t>
+  </si>
+  <si>
+    <t>7879</t>
+  </si>
+  <si>
+    <t>12554</t>
+  </si>
+  <si>
+    <t>3886</t>
+  </si>
+  <si>
+    <t>6237</t>
+  </si>
+  <si>
+    <t>5521</t>
+  </si>
+  <si>
+    <t>13437</t>
+  </si>
+  <si>
+    <t>3987</t>
+  </si>
+  <si>
+    <t>8056</t>
+  </si>
+  <si>
+    <t>4944</t>
+  </si>
+  <si>
+    <t>14924</t>
+  </si>
+  <si>
+    <t>3489</t>
+  </si>
+  <si>
+    <t>7839</t>
+  </si>
+  <si>
+    <t>14478</t>
+  </si>
+  <si>
+    <t>3218</t>
+  </si>
+  <si>
+    <t>6056</t>
+  </si>
+  <si>
+    <t>3160</t>
+  </si>
+  <si>
+    <t>12306</t>
+  </si>
+  <si>
+    <t>2659</t>
+  </si>
+  <si>
+    <t>4838</t>
+  </si>
+  <si>
+    <t>5356</t>
+  </si>
+  <si>
+    <t>88587</t>
+  </si>
+  <si>
+    <t>39591</t>
+  </si>
+  <si>
+    <t>30084</t>
+  </si>
+  <si>
+    <t>10269</t>
+  </si>
+  <si>
+    <t>85061</t>
+  </si>
+  <si>
+    <t>30217</t>
+  </si>
+  <si>
+    <t>50153</t>
+  </si>
+  <si>
+    <t>4448</t>
+  </si>
+  <si>
+    <t>13124</t>
+  </si>
+  <si>
+    <t>2935</t>
+  </si>
+  <si>
+    <t>5123</t>
+  </si>
+  <si>
+    <t>4994</t>
+  </si>
+  <si>
+    <t>12457</t>
+  </si>
+  <si>
+    <t>2498</t>
+  </si>
+  <si>
+    <t>5198</t>
+  </si>
+  <si>
+    <t>5059</t>
+  </si>
+  <si>
+    <t>12617</t>
+  </si>
+  <si>
+    <t>3322</t>
+  </si>
+  <si>
+    <t>5535</t>
+  </si>
+  <si>
+    <t>5456</t>
+  </si>
+  <si>
+    <t>13101</t>
+  </si>
+  <si>
+    <t>2934</t>
+  </si>
+  <si>
+    <t>5160</t>
+  </si>
+  <si>
+    <t>5185</t>
+  </si>
+  <si>
+    <t>12542</t>
+  </si>
+  <si>
+    <t>2785</t>
+  </si>
+  <si>
+    <t>5343</t>
+  </si>
+  <si>
+    <t>12217</t>
+  </si>
+  <si>
+    <t>6278</t>
+  </si>
+  <si>
+    <t>4103</t>
+  </si>
+  <si>
+    <t>7522</t>
+  </si>
+  <si>
+    <t>14842</t>
+  </si>
+  <si>
+    <t>3443</t>
+  </si>
+  <si>
+    <t>5545</t>
+  </si>
+  <si>
+    <t>4416</t>
+  </si>
+  <si>
+    <t>6130</t>
+  </si>
+  <si>
+    <t>11092</t>
+  </si>
+  <si>
+    <t>8065</t>
+  </si>
+  <si>
+    <t>14011</t>
+  </si>
+  <si>
+    <t>4265</t>
+  </si>
+  <si>
+    <t>4398</t>
+  </si>
+  <si>
+    <t>4682</t>
+  </si>
+  <si>
+    <t>14845</t>
+  </si>
+  <si>
+    <t>3992</t>
+  </si>
+  <si>
+    <t>4732</t>
+  </si>
+  <si>
+    <t>13096</t>
+  </si>
+  <si>
+    <t>3383</t>
+  </si>
+  <si>
+    <t>7609</t>
+  </si>
+  <si>
+    <t>4982</t>
+  </si>
+  <si>
+    <t>13878</t>
+  </si>
+  <si>
+    <t>3551</t>
+  </si>
+  <si>
+    <t>7909</t>
+  </si>
+  <si>
+    <t>4963</t>
+  </si>
+  <si>
+    <t>14002</t>
+  </si>
+  <si>
+    <t>5449</t>
+  </si>
+  <si>
+    <t>8136</t>
+  </si>
+  <si>
+    <t>14813</t>
+  </si>
+  <si>
+    <t>5527</t>
+  </si>
+  <si>
+    <t>11056</t>
+  </si>
+  <si>
+    <t>8103</t>
+  </si>
+  <si>
+    <t>14381</t>
+  </si>
+  <si>
+    <t>3976</t>
+  </si>
+  <si>
+    <t>5383</t>
+  </si>
+  <si>
+    <t>3697</t>
+  </si>
+  <si>
+    <t>14220</t>
+  </si>
+  <si>
+    <t>2616</t>
+  </si>
+  <si>
+    <t>6586</t>
+  </si>
+  <si>
+    <t>6758</t>
+  </si>
+  <si>
+    <t>13238</t>
+  </si>
+  <si>
+    <t>8330</t>
+  </si>
+  <si>
+    <t>4525</t>
+  </si>
+  <si>
+    <t>13905</t>
+  </si>
+  <si>
+    <t>4821</t>
+  </si>
+  <si>
+    <t>8848</t>
+  </si>
+  <si>
+    <t>5427</t>
+  </si>
+  <si>
+    <t>13488</t>
+  </si>
+  <si>
+    <t>3799</t>
+  </si>
+  <si>
+    <t>7480</t>
+  </si>
+  <si>
+    <t>5441</t>
+  </si>
+  <si>
+    <t>13454</t>
+  </si>
+  <si>
+    <t>3432</t>
+  </si>
+  <si>
+    <t>6560</t>
+  </si>
+  <si>
+    <t>5709</t>
+  </si>
+  <si>
+    <t>14999</t>
+  </si>
+  <si>
+    <t>3139</t>
+  </si>
+  <si>
+    <t>8175</t>
+  </si>
+  <si>
+    <t>5229</t>
+  </si>
+  <si>
+    <t>12173</t>
+  </si>
+  <si>
+    <t>4313</t>
+  </si>
+  <si>
+    <t>4834</t>
+  </si>
+  <si>
+    <t>5268</t>
+  </si>
+  <si>
+    <t>12723</t>
+  </si>
+  <si>
+    <t>3526</t>
+  </si>
+  <si>
+    <t>7598</t>
+  </si>
+  <si>
+    <t>4534</t>
+  </si>
+  <si>
+    <t>15286</t>
+  </si>
+  <si>
+    <t>5990</t>
+  </si>
+  <si>
+    <t>11840</t>
+  </si>
+  <si>
+    <t>7664</t>
+  </si>
+  <si>
+    <t>14222</t>
+  </si>
+  <si>
+    <t>6011</t>
+  </si>
+  <si>
+    <t>8983</t>
+  </si>
+  <si>
+    <t>8104</t>
+  </si>
+  <si>
+    <t>14907</t>
+  </si>
+  <si>
+    <t>12878</t>
+  </si>
+  <si>
+    <t>8702</t>
+  </si>
+  <si>
+    <t>6082</t>
+  </si>
+  <si>
+    <t>15509</t>
+  </si>
+  <si>
+    <t>22178</t>
+  </si>
+  <si>
+    <t>13507</t>
+  </si>
+  <si>
+    <t>3418</t>
+  </si>
+  <si>
+    <t>3100</t>
+  </si>
+  <si>
+    <t>3204</t>
+  </si>
+  <si>
+    <t>6557</t>
+  </si>
+  <si>
+    <t>8756</t>
+  </si>
+  <si>
+    <t>6244</t>
+  </si>
+  <si>
+    <t>3454</t>
+  </si>
+  <si>
+    <t>6765</t>
+  </si>
+  <si>
+    <t>8791</t>
+  </si>
+  <si>
+    <t>10388</t>
+  </si>
+  <si>
+    <t>1435</t>
+  </si>
+  <si>
+    <t>12798</t>
+  </si>
+  <si>
+    <t>7558</t>
+  </si>
+  <si>
+    <t>7066</t>
+  </si>
+  <si>
+    <t>11097</t>
+  </si>
+  <si>
+    <t>63160</t>
+  </si>
+  <si>
+    <t>9330</t>
+  </si>
+  <si>
+    <t>5968</t>
+  </si>
+  <si>
+    <t>4318</t>
+  </si>
+  <si>
+    <t>7597</t>
+  </si>
+  <si>
+    <t>6508</t>
+  </si>
+  <si>
+    <t>3669</t>
+  </si>
+  <si>
+    <t>3261</t>
+  </si>
+  <si>
+    <t>4055</t>
+  </si>
+  <si>
+    <t>2458</t>
+  </si>
+  <si>
+    <t>https://google.pl/</t>
+  </si>
+  <si>
+    <t>733</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/java-tutorial</t>
+  </si>
+  <si>
+    <t>3390</t>
+  </si>
+  <si>
+    <t>8259</t>
+  </si>
+  <si>
+    <t>17558</t>
   </si>
 </sst>
 </file>
@@ -2243,7 +3353,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2286,6 +3396,36 @@
       <sz val="15"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2307,7 +3447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2328,6 +3468,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2610,10 +3768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:M174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2625,9 +3783,14 @@
     <col min="5" max="5" bestFit="true" customWidth="true" width="51.015625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="54.4296875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="39.22265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="24.33984375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="34.30859375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="27.01171875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="33.88671875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2649,9 +3812,26 @@
       <c r="G1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>1103</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2673,8 +3853,20 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>740</v>
+      </c>
+      <c r="I2" t="s">
+        <v>742</v>
+      </c>
+      <c r="J2" t="s">
+        <v>744</v>
+      </c>
+      <c r="K2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2696,8 +3888,20 @@
       <c r="G3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>747</v>
+      </c>
+      <c r="I3" t="s">
+        <v>748</v>
+      </c>
+      <c r="J3" t="s">
+        <v>749</v>
+      </c>
+      <c r="K3" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2719,8 +3923,20 @@
       <c r="G4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>751</v>
+      </c>
+      <c r="I4" t="s">
+        <v>752</v>
+      </c>
+      <c r="J4" t="s">
+        <v>573</v>
+      </c>
+      <c r="K4" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2742,8 +3958,20 @@
       <c r="G5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>753</v>
+      </c>
+      <c r="I5" t="s">
+        <v>754</v>
+      </c>
+      <c r="J5" t="s">
+        <v>758</v>
+      </c>
+      <c r="K5" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -2765,8 +3993,20 @@
       <c r="G6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>756</v>
+      </c>
+      <c r="I6" t="s">
+        <v>757</v>
+      </c>
+      <c r="J6" t="s">
+        <v>762</v>
+      </c>
+      <c r="K6" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -2788,8 +4028,20 @@
       <c r="G7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>760</v>
+      </c>
+      <c r="I7" t="s">
+        <v>761</v>
+      </c>
+      <c r="J7" t="s">
+        <v>766</v>
+      </c>
+      <c r="K7" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -2811,8 +4063,20 @@
       <c r="G8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>764</v>
+      </c>
+      <c r="I8" t="s">
+        <v>765</v>
+      </c>
+      <c r="J8" t="s">
+        <v>769</v>
+      </c>
+      <c r="K8" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -2834,8 +4098,20 @@
       <c r="G9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>767</v>
+      </c>
+      <c r="I9" t="s">
+        <v>768</v>
+      </c>
+      <c r="J9" t="s">
+        <v>773</v>
+      </c>
+      <c r="K9" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -2857,8 +4133,20 @@
       <c r="G10" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>771</v>
+      </c>
+      <c r="I10" t="s">
+        <v>772</v>
+      </c>
+      <c r="J10" t="s">
+        <v>777</v>
+      </c>
+      <c r="K10" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -2880,8 +4168,20 @@
       <c r="G11" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>775</v>
+      </c>
+      <c r="I11" t="s">
+        <v>776</v>
+      </c>
+      <c r="J11" t="s">
+        <v>781</v>
+      </c>
+      <c r="K11" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -2903,8 +4203,20 @@
       <c r="G12" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>779</v>
+      </c>
+      <c r="I12" t="s">
+        <v>780</v>
+      </c>
+      <c r="J12" t="s">
+        <v>785</v>
+      </c>
+      <c r="K12" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>180</v>
       </c>
@@ -2926,8 +4238,20 @@
       <c r="G13" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>783</v>
+      </c>
+      <c r="I13" t="s">
+        <v>784</v>
+      </c>
+      <c r="J13" t="s">
+        <v>789</v>
+      </c>
+      <c r="K13" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>187</v>
       </c>
@@ -2949,8 +4273,20 @@
       <c r="G14" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>787</v>
+      </c>
+      <c r="I14" t="s">
+        <v>788</v>
+      </c>
+      <c r="J14" t="s">
+        <v>793</v>
+      </c>
+      <c r="K14" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>194</v>
       </c>
@@ -2972,8 +4308,20 @@
       <c r="G15" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>791</v>
+      </c>
+      <c r="I15" t="s">
+        <v>792</v>
+      </c>
+      <c r="J15" t="s">
+        <v>797</v>
+      </c>
+      <c r="K15" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>201</v>
       </c>
@@ -2995,8 +4343,20 @@
       <c r="G16" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>795</v>
+      </c>
+      <c r="I16" t="s">
+        <v>796</v>
+      </c>
+      <c r="J16" t="s">
+        <v>801</v>
+      </c>
+      <c r="K16" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>208</v>
       </c>
@@ -3018,8 +4378,20 @@
       <c r="G17" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>799</v>
+      </c>
+      <c r="I17" t="s">
+        <v>800</v>
+      </c>
+      <c r="J17" t="s">
+        <v>805</v>
+      </c>
+      <c r="K17" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>215</v>
       </c>
@@ -3041,8 +4413,20 @@
       <c r="G18" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>803</v>
+      </c>
+      <c r="I18" t="s">
+        <v>804</v>
+      </c>
+      <c r="J18" t="s">
+        <v>809</v>
+      </c>
+      <c r="K18" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>222</v>
       </c>
@@ -3064,8 +4448,20 @@
       <c r="G19" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>807</v>
+      </c>
+      <c r="I19" t="s">
+        <v>808</v>
+      </c>
+      <c r="J19" t="s">
+        <v>813</v>
+      </c>
+      <c r="K19" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>229</v>
       </c>
@@ -3087,8 +4483,20 @@
       <c r="G20" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>811</v>
+      </c>
+      <c r="I20" t="s">
+        <v>812</v>
+      </c>
+      <c r="J20" t="s">
+        <v>805</v>
+      </c>
+      <c r="K20" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>235</v>
       </c>
@@ -3110,8 +4518,20 @@
       <c r="G21" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>815</v>
+      </c>
+      <c r="I21" t="s">
+        <v>816</v>
+      </c>
+      <c r="J21" t="s">
+        <v>819</v>
+      </c>
+      <c r="K21" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>242</v>
       </c>
@@ -3133,8 +4553,20 @@
       <c r="G22" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>350</v>
+      </c>
+      <c r="I22" t="s">
+        <v>818</v>
+      </c>
+      <c r="J22" t="s">
+        <v>823</v>
+      </c>
+      <c r="K22" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>249</v>
       </c>
@@ -3156,8 +4588,20 @@
       <c r="G23" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>821</v>
+      </c>
+      <c r="I23" t="s">
+        <v>822</v>
+      </c>
+      <c r="J23" t="s">
+        <v>827</v>
+      </c>
+      <c r="K23" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>255</v>
       </c>
@@ -3179,8 +4623,20 @@
       <c r="G24" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>825</v>
+      </c>
+      <c r="I24" t="s">
+        <v>826</v>
+      </c>
+      <c r="J24" t="s">
+        <v>831</v>
+      </c>
+      <c r="K24" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>262</v>
       </c>
@@ -3202,8 +4658,20 @@
       <c r="G25" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>829</v>
+      </c>
+      <c r="I25" t="s">
+        <v>830</v>
+      </c>
+      <c r="J25" t="s">
+        <v>835</v>
+      </c>
+      <c r="K25" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>268</v>
       </c>
@@ -3225,8 +4693,20 @@
       <c r="G26" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>833</v>
+      </c>
+      <c r="I26" t="s">
+        <v>834</v>
+      </c>
+      <c r="J26" t="s">
+        <v>839</v>
+      </c>
+      <c r="K26" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>275</v>
       </c>
@@ -3248,8 +4728,20 @@
       <c r="G27" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>837</v>
+      </c>
+      <c r="I27" t="s">
+        <v>838</v>
+      </c>
+      <c r="J27" t="s">
+        <v>843</v>
+      </c>
+      <c r="K27" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>282</v>
       </c>
@@ -3271,8 +4763,20 @@
       <c r="G28" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>841</v>
+      </c>
+      <c r="I28" t="s">
+        <v>842</v>
+      </c>
+      <c r="J28" t="s">
+        <v>847</v>
+      </c>
+      <c r="K28" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>289</v>
       </c>
@@ -3294,8 +4798,20 @@
       <c r="G29" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>845</v>
+      </c>
+      <c r="I29" t="s">
+        <v>846</v>
+      </c>
+      <c r="J29" t="s">
+        <v>851</v>
+      </c>
+      <c r="K29" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>296</v>
       </c>
@@ -3317,8 +4833,20 @@
       <c r="G30" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>849</v>
+      </c>
+      <c r="I30" t="s">
+        <v>850</v>
+      </c>
+      <c r="J30" t="s">
+        <v>855</v>
+      </c>
+      <c r="K30" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>303</v>
       </c>
@@ -3340,8 +4868,20 @@
       <c r="G31" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>853</v>
+      </c>
+      <c r="I31" t="s">
+        <v>854</v>
+      </c>
+      <c r="J31" t="s">
+        <v>859</v>
+      </c>
+      <c r="K31" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>310</v>
       </c>
@@ -3363,8 +4903,20 @@
       <c r="G32" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>857</v>
+      </c>
+      <c r="I32" t="s">
+        <v>858</v>
+      </c>
+      <c r="J32" t="s">
+        <v>862</v>
+      </c>
+      <c r="K32" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>316</v>
       </c>
@@ -3386,8 +4938,20 @@
       <c r="G33" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>861</v>
+      </c>
+      <c r="I33" t="s">
+        <v>347</v>
+      </c>
+      <c r="J33" t="s">
+        <v>866</v>
+      </c>
+      <c r="K33" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>323</v>
       </c>
@@ -3409,8 +4973,20 @@
       <c r="G34" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>864</v>
+      </c>
+      <c r="I34" t="s">
+        <v>865</v>
+      </c>
+      <c r="J34" t="s">
+        <v>870</v>
+      </c>
+      <c r="K34" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>330</v>
       </c>
@@ -3432,8 +5008,20 @@
       <c r="G35" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>868</v>
+      </c>
+      <c r="I35" t="s">
+        <v>869</v>
+      </c>
+      <c r="J35" t="s">
+        <v>874</v>
+      </c>
+      <c r="K35" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>337</v>
       </c>
@@ -3455,8 +5043,20 @@
       <c r="G36" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>872</v>
+      </c>
+      <c r="I36" t="s">
+        <v>873</v>
+      </c>
+      <c r="J36" t="s">
+        <v>877</v>
+      </c>
+      <c r="K36" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>344</v>
       </c>
@@ -3478,8 +5078,20 @@
       <c r="G37" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>876</v>
+      </c>
+      <c r="I37" t="s">
+        <v>637</v>
+      </c>
+      <c r="J37" t="s">
+        <v>881</v>
+      </c>
+      <c r="K37" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>351</v>
       </c>
@@ -3501,8 +5113,20 @@
       <c r="G38" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>879</v>
+      </c>
+      <c r="I38" t="s">
+        <v>880</v>
+      </c>
+      <c r="J38" t="s">
+        <v>885</v>
+      </c>
+      <c r="K38" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>358</v>
       </c>
@@ -3524,8 +5148,20 @@
       <c r="G39" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>883</v>
+      </c>
+      <c r="I39" t="s">
+        <v>884</v>
+      </c>
+      <c r="J39" t="s">
+        <v>889</v>
+      </c>
+      <c r="K39" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>365</v>
       </c>
@@ -3547,8 +5183,20 @@
       <c r="G40" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>887</v>
+      </c>
+      <c r="I40" t="s">
+        <v>888</v>
+      </c>
+      <c r="J40" t="s">
+        <v>893</v>
+      </c>
+      <c r="K40" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>372</v>
       </c>
@@ -3570,8 +5218,20 @@
       <c r="G41" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>891</v>
+      </c>
+      <c r="I41" t="s">
+        <v>892</v>
+      </c>
+      <c r="J41" t="s">
+        <v>897</v>
+      </c>
+      <c r="K41" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>378</v>
       </c>
@@ -3593,8 +5253,20 @@
       <c r="G42" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>895</v>
+      </c>
+      <c r="I42" t="s">
+        <v>896</v>
+      </c>
+      <c r="J42" t="s">
+        <v>900</v>
+      </c>
+      <c r="K42" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>385</v>
       </c>
@@ -3616,8 +5288,20 @@
       <c r="G43" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>898</v>
+      </c>
+      <c r="I43" t="s">
+        <v>899</v>
+      </c>
+      <c r="J43" t="s">
+        <v>904</v>
+      </c>
+      <c r="K43" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>392</v>
       </c>
@@ -3639,8 +5323,20 @@
       <c r="G44" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>902</v>
+      </c>
+      <c r="I44" t="s">
+        <v>903</v>
+      </c>
+      <c r="J44" t="s">
+        <v>874</v>
+      </c>
+      <c r="K44" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>397</v>
       </c>
@@ -3662,8 +5358,20 @@
       <c r="G45" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>906</v>
+      </c>
+      <c r="I45" t="s">
+        <v>907</v>
+      </c>
+      <c r="J45" t="s">
+        <v>911</v>
+      </c>
+      <c r="K45" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>404</v>
       </c>
@@ -3685,8 +5393,20 @@
       <c r="G46" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>909</v>
+      </c>
+      <c r="I46" t="s">
+        <v>910</v>
+      </c>
+      <c r="J46" t="s">
+        <v>915</v>
+      </c>
+      <c r="K46" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>396</v>
       </c>
@@ -3708,8 +5428,20 @@
       <c r="G47" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>913</v>
+      </c>
+      <c r="I47" t="s">
+        <v>914</v>
+      </c>
+      <c r="J47" t="s">
+        <v>919</v>
+      </c>
+      <c r="K47" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>416</v>
       </c>
@@ -3731,8 +5463,20 @@
       <c r="G48" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>917</v>
+      </c>
+      <c r="I48" t="s">
+        <v>918</v>
+      </c>
+      <c r="J48" t="s">
+        <v>924</v>
+      </c>
+      <c r="K48" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>423</v>
       </c>
@@ -3754,8 +5498,20 @@
       <c r="G49" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>921</v>
+      </c>
+      <c r="I49" t="s">
+        <v>923</v>
+      </c>
+      <c r="J49" t="s">
+        <v>928</v>
+      </c>
+      <c r="K49" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>429</v>
       </c>
@@ -3777,8 +5533,20 @@
       <c r="G50" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>922</v>
+      </c>
+      <c r="I50" t="s">
+        <v>927</v>
+      </c>
+      <c r="J50" t="s">
+        <v>931</v>
+      </c>
+      <c r="K50" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>436</v>
       </c>
@@ -3800,8 +5568,20 @@
       <c r="G51" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>926</v>
+      </c>
+      <c r="I51" t="s">
+        <v>742</v>
+      </c>
+      <c r="J51" t="s">
+        <v>935</v>
+      </c>
+      <c r="K51" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>441</v>
       </c>
@@ -3823,8 +5603,20 @@
       <c r="G52" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>930</v>
+      </c>
+      <c r="I52" t="s">
+        <v>934</v>
+      </c>
+      <c r="J52" t="s">
+        <v>939</v>
+      </c>
+      <c r="K52" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>448</v>
       </c>
@@ -3846,8 +5638,20 @@
       <c r="G53" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>933</v>
+      </c>
+      <c r="I53" t="s">
+        <v>938</v>
+      </c>
+      <c r="J53" t="s">
+        <v>942</v>
+      </c>
+      <c r="K53" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>455</v>
       </c>
@@ -3869,8 +5673,20 @@
       <c r="G54" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>937</v>
+      </c>
+      <c r="I54" t="s">
+        <v>941</v>
+      </c>
+      <c r="J54" t="s">
+        <v>945</v>
+      </c>
+      <c r="K54" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>438</v>
       </c>
@@ -3892,8 +5708,20 @@
       <c r="G55" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H55" t="s">
+        <v>940</v>
+      </c>
+      <c r="I55" t="s">
+        <v>944</v>
+      </c>
+      <c r="J55" t="s">
+        <v>869</v>
+      </c>
+      <c r="K55" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>466</v>
       </c>
@@ -3915,8 +5743,20 @@
       <c r="G56" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H56" t="s">
+        <v>872</v>
+      </c>
+      <c r="I56" t="s">
+        <v>948</v>
+      </c>
+      <c r="J56" t="s">
+        <v>952</v>
+      </c>
+      <c r="K56" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>473</v>
       </c>
@@ -3938,8 +5778,20 @@
       <c r="G57" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H57" t="s">
+        <v>947</v>
+      </c>
+      <c r="I57" t="s">
+        <v>951</v>
+      </c>
+      <c r="J57" t="s">
+        <v>956</v>
+      </c>
+      <c r="K57" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>480</v>
       </c>
@@ -3961,8 +5813,20 @@
       <c r="G58" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H58" t="s">
+        <v>950</v>
+      </c>
+      <c r="I58" t="s">
+        <v>955</v>
+      </c>
+      <c r="J58" t="s">
+        <v>822</v>
+      </c>
+      <c r="K58" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>486</v>
       </c>
@@ -3984,8 +5848,20 @@
       <c r="G59" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H59" t="s">
+        <v>954</v>
+      </c>
+      <c r="I59" t="s">
+        <v>959</v>
+      </c>
+      <c r="J59" t="s">
+        <v>963</v>
+      </c>
+      <c r="K59" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>493</v>
       </c>
@@ -4007,8 +5883,20 @@
       <c r="G60" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H60" t="s">
+        <v>958</v>
+      </c>
+      <c r="I60" t="s">
+        <v>962</v>
+      </c>
+      <c r="J60" t="s">
+        <v>967</v>
+      </c>
+      <c r="K60" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>499</v>
       </c>
@@ -4030,8 +5918,20 @@
       <c r="G61" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H61" t="s">
+        <v>961</v>
+      </c>
+      <c r="I61" t="s">
+        <v>966</v>
+      </c>
+      <c r="J61" t="s">
+        <v>971</v>
+      </c>
+      <c r="K61" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>506</v>
       </c>
@@ -4053,8 +5953,20 @@
       <c r="G62" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H62" t="s">
+        <v>965</v>
+      </c>
+      <c r="I62" t="s">
+        <v>970</v>
+      </c>
+      <c r="J62" t="s">
+        <v>975</v>
+      </c>
+      <c r="K62" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>512</v>
       </c>
@@ -4076,8 +5988,20 @@
       <c r="G63" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H63" t="s">
+        <v>969</v>
+      </c>
+      <c r="I63" t="s">
+        <v>974</v>
+      </c>
+      <c r="J63" t="s">
+        <v>979</v>
+      </c>
+      <c r="K63" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>519</v>
       </c>
@@ -4099,8 +6023,20 @@
       <c r="G64" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H64" t="s">
+        <v>973</v>
+      </c>
+      <c r="I64" t="s">
+        <v>978</v>
+      </c>
+      <c r="J64" t="s">
+        <v>983</v>
+      </c>
+      <c r="K64" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>525</v>
       </c>
@@ -4122,8 +6058,20 @@
       <c r="G65" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H65" t="s">
+        <v>977</v>
+      </c>
+      <c r="I65" t="s">
+        <v>982</v>
+      </c>
+      <c r="J65" t="s">
+        <v>987</v>
+      </c>
+      <c r="K65" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>532</v>
       </c>
@@ -4145,8 +6093,20 @@
       <c r="G66" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H66" t="s">
+        <v>981</v>
+      </c>
+      <c r="I66" t="s">
+        <v>986</v>
+      </c>
+      <c r="J66" t="s">
+        <v>991</v>
+      </c>
+      <c r="K66" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>538</v>
       </c>
@@ -4168,8 +6128,20 @@
       <c r="G67" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H67" t="s">
+        <v>985</v>
+      </c>
+      <c r="I67" t="s">
+        <v>990</v>
+      </c>
+      <c r="J67" t="s">
+        <v>994</v>
+      </c>
+      <c r="K67" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>544</v>
       </c>
@@ -4191,8 +6163,20 @@
       <c r="G68" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H68" t="s">
+        <v>989</v>
+      </c>
+      <c r="I68" t="s">
+        <v>839</v>
+      </c>
+      <c r="J68" t="s">
+        <v>998</v>
+      </c>
+      <c r="K68" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>550</v>
       </c>
@@ -4214,8 +6198,20 @@
       <c r="G69" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H69" t="s">
+        <v>993</v>
+      </c>
+      <c r="I69" t="s">
+        <v>997</v>
+      </c>
+      <c r="J69" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K69" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>557</v>
       </c>
@@ -4237,8 +6233,20 @@
       <c r="G70" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H70" t="s">
+        <v>996</v>
+      </c>
+      <c r="I70" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J70" t="s">
+        <v>1005</v>
+      </c>
+      <c r="K70" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>563</v>
       </c>
@@ -4260,8 +6268,20 @@
       <c r="G71" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H71" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I71" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J71" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K71" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>569</v>
       </c>
@@ -4283,8 +6303,20 @@
       <c r="G72" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H72" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I72" t="s">
+        <v>1008</v>
+      </c>
+      <c r="J72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="K72" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>573</v>
       </c>
@@ -4306,8 +6338,20 @@
       <c r="G73" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H73" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I73" t="s">
+        <v>659</v>
+      </c>
+      <c r="J73" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K73" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>580</v>
       </c>
@@ -4329,8 +6373,20 @@
       <c r="G74" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H74" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I74" t="s">
+        <v>1015</v>
+      </c>
+      <c r="J74" t="s">
+        <v>1020</v>
+      </c>
+      <c r="K74" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>587</v>
       </c>
@@ -4352,8 +6408,20 @@
       <c r="G75" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H75" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I75" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K75" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>594</v>
       </c>
@@ -4375,8 +6443,20 @@
       <c r="G76" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H76" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I76" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J76" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K76" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>600</v>
       </c>
@@ -4398,8 +6478,20 @@
       <c r="G77" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H77" t="s">
+        <v>809</v>
+      </c>
+      <c r="I77" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J77" t="s">
+        <v>1031</v>
+      </c>
+      <c r="K77" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>607</v>
       </c>
@@ -4421,8 +6513,20 @@
       <c r="G78" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H78" t="s">
+        <v>1025</v>
+      </c>
+      <c r="I78" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J78" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K78" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>613</v>
       </c>
@@ -4444,8 +6548,20 @@
       <c r="G79" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H79" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I79" t="s">
+        <v>1034</v>
+      </c>
+      <c r="J79" t="s">
+        <v>1038</v>
+      </c>
+      <c r="K79" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>620</v>
       </c>
@@ -4467,8 +6583,20 @@
       <c r="G80" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H80" t="s">
+        <v>1033</v>
+      </c>
+      <c r="I80" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J80" t="s">
+        <v>1042</v>
+      </c>
+      <c r="K80" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>627</v>
       </c>
@@ -4490,8 +6618,20 @@
       <c r="G81" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H81" t="s">
+        <v>658</v>
+      </c>
+      <c r="I81" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J81" t="s">
+        <v>1046</v>
+      </c>
+      <c r="K81" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>634</v>
       </c>
@@ -4513,8 +6653,20 @@
       <c r="G82" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H82" t="s">
+        <v>1040</v>
+      </c>
+      <c r="I82" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J82" t="s">
+        <v>1050</v>
+      </c>
+      <c r="K82" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>330</v>
       </c>
@@ -4536,8 +6688,20 @@
       <c r="G83" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H83" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I83" t="s">
+        <v>1049</v>
+      </c>
+      <c r="J83" t="s">
+        <v>1054</v>
+      </c>
+      <c r="K83" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>645</v>
       </c>
@@ -4559,8 +6723,20 @@
       <c r="G84" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H84" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I84" t="s">
+        <v>1053</v>
+      </c>
+      <c r="J84" t="s">
+        <v>1058</v>
+      </c>
+      <c r="K84" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>652</v>
       </c>
@@ -4582,8 +6758,20 @@
       <c r="G85" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H85" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I85" t="s">
+        <v>1057</v>
+      </c>
+      <c r="J85" t="s">
+        <v>1062</v>
+      </c>
+      <c r="K85" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>659</v>
       </c>
@@ -4605,8 +6793,20 @@
       <c r="G86" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H86" t="s">
+        <v>1056</v>
+      </c>
+      <c r="I86" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J86" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K86" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>666</v>
       </c>
@@ -4628,8 +6828,20 @@
       <c r="G87" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="88">
+      <c r="H87" t="s">
+        <v>1060</v>
+      </c>
+      <c r="I87" t="s">
+        <v>1065</v>
+      </c>
+      <c r="J87" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K87" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>673</v>
       </c>
@@ -4651,8 +6863,20 @@
       <c r="G88" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="89">
+      <c r="H88" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I88" t="s">
+        <v>1069</v>
+      </c>
+      <c r="J88" t="s">
+        <v>1073</v>
+      </c>
+      <c r="K88" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>675</v>
       </c>
@@ -4674,8 +6898,20 @@
       <c r="G89" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="90">
+      <c r="H89" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I89" t="s">
+        <v>1072</v>
+      </c>
+      <c r="J89" t="s">
+        <v>1076</v>
+      </c>
+      <c r="K89" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>682</v>
       </c>
@@ -4697,8 +6933,20 @@
       <c r="G90" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="91">
+      <c r="H90" t="s">
+        <v>425</v>
+      </c>
+      <c r="I90" t="s">
+        <v>1075</v>
+      </c>
+      <c r="J90" t="s">
+        <v>1083</v>
+      </c>
+      <c r="K90" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>688</v>
       </c>
@@ -4720,8 +6968,20 @@
       <c r="G91" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="92">
+      <c r="H91" t="s">
+        <v>1074</v>
+      </c>
+      <c r="I91" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J91" t="s">
+        <v>1087</v>
+      </c>
+      <c r="K91" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>695</v>
       </c>
@@ -4743,8 +7003,20 @@
       <c r="G92" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="93">
+      <c r="H92" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I92" t="s">
+        <v>1086</v>
+      </c>
+      <c r="J92" t="s">
+        <v>1090</v>
+      </c>
+      <c r="K92" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>701</v>
       </c>
@@ -4766,8 +7038,20 @@
       <c r="G93" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="94">
+      <c r="H93" t="s">
+        <v>1085</v>
+      </c>
+      <c r="I93" t="s">
+        <v>1089</v>
+      </c>
+      <c r="J93" t="s">
+        <v>1094</v>
+      </c>
+      <c r="K93" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>438</v>
       </c>
@@ -4789,8 +7073,17 @@
       <c r="G94" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="95">
+      <c r="H94" t="s">
+        <v>822</v>
+      </c>
+      <c r="I94" t="s">
+        <v>1093</v>
+      </c>
+      <c r="J94" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>712</v>
       </c>
@@ -4812,8 +7105,17 @@
       <c r="G95" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="96">
+      <c r="H95" t="s">
+        <v>1092</v>
+      </c>
+      <c r="I95" t="s">
+        <v>1097</v>
+      </c>
+      <c r="J95" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>719</v>
       </c>
@@ -4832,8 +7134,14 @@
       <c r="F96" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="97">
+      <c r="H96" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I96" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>725</v>
       </c>
@@ -4852,8 +7160,14 @@
       <c r="F97" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="98">
+      <c r="H97" t="s">
+        <v>1100</v>
+      </c>
+      <c r="I97" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>732</v>
       </c>
@@ -4863,8 +7177,14 @@
       <c r="C98" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="99">
+      <c r="H98" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1078</v>
+      </c>
       <c r="B99" t="s">
         <v>256</v>
       </c>
@@ -4872,7 +7192,10 @@
         <v>250</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1079</v>
+      </c>
       <c r="B100" t="s">
         <v>263</v>
       </c>
@@ -4880,7 +7203,10 @@
         <v>257</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1080</v>
+      </c>
       <c r="B101" t="s">
         <v>269</v>
       </c>
@@ -4888,7 +7214,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>276</v>
       </c>
@@ -4896,7 +7222,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>283</v>
       </c>
@@ -4904,7 +7230,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>290</v>
       </c>
@@ -4912,7 +7238,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>297</v>
       </c>
@@ -4920,7 +7246,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>304</v>
       </c>
@@ -4928,7 +7254,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>236</v>
       </c>
@@ -4936,7 +7262,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>317</v>
       </c>
@@ -4944,7 +7270,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>324</v>
       </c>
@@ -4952,7 +7278,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>331</v>
       </c>
@@ -4960,7 +7286,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>338</v>
       </c>
@@ -4968,7 +7294,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>345</v>
       </c>
@@ -4976,7 +7302,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>352</v>
       </c>
@@ -4984,7 +7310,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>359</v>
       </c>
@@ -4992,7 +7318,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>366</v>
       </c>
@@ -5000,7 +7326,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>366</v>
       </c>
@@ -5008,7 +7334,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>379</v>
       </c>
@@ -5016,7 +7342,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>386</v>
       </c>
@@ -5024,7 +7350,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>393</v>
       </c>
@@ -5032,7 +7358,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>398</v>
       </c>
@@ -5040,7 +7366,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>405</v>
       </c>
@@ -5048,7 +7374,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>411</v>
       </c>
@@ -5056,7 +7382,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>417</v>
       </c>
@@ -5064,7 +7390,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>339</v>
       </c>
@@ -5072,7 +7398,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>430</v>
       </c>
@@ -5080,7 +7406,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>437</v>
       </c>
@@ -5088,7 +7414,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>442</v>
       </c>
@@ -5096,7 +7422,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>449</v>
       </c>
@@ -5104,7 +7430,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>325</v>
       </c>
@@ -5112,7 +7438,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>460</v>
       </c>
@@ -5120,7 +7446,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>467</v>
       </c>
@@ -5128,7 +7454,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>474</v>
       </c>
@@ -5136,7 +7462,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>196</v>
       </c>
@@ -5144,7 +7470,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>487</v>
       </c>
@@ -5152,7 +7478,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>494</v>
       </c>
@@ -5160,7 +7486,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>500</v>
       </c>
@@ -5168,7 +7494,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>507</v>
       </c>
@@ -5176,7 +7502,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>513</v>
       </c>
@@ -5184,7 +7510,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>520</v>
       </c>
@@ -5192,7 +7518,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>526</v>
       </c>
@@ -5200,7 +7526,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>79</v>
       </c>
@@ -5208,7 +7534,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>539</v>
       </c>
@@ -5216,7 +7542,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>545</v>
       </c>
@@ -5224,7 +7550,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>551</v>
       </c>
@@ -5232,7 +7558,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>558</v>
       </c>
@@ -5240,7 +7566,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>564</v>
       </c>
@@ -5248,7 +7574,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>353</v>
       </c>
@@ -5256,7 +7582,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>574</v>
       </c>
@@ -5264,7 +7590,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>581</v>
       </c>
@@ -5272,7 +7598,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>588</v>
       </c>
@@ -5280,7 +7606,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>595</v>
       </c>
@@ -5288,7 +7614,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>601</v>
       </c>
@@ -5296,7 +7622,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>608</v>
       </c>
@@ -5304,7 +7630,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>614</v>
       </c>
@@ -5312,7 +7638,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>621</v>
       </c>
@@ -5320,7 +7646,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>628</v>
       </c>
@@ -5328,7 +7654,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>635</v>
       </c>
@@ -5336,7 +7662,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>640</v>
       </c>
@@ -5344,7 +7670,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>646</v>
       </c>
@@ -5352,7 +7678,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>653</v>
       </c>
@@ -5360,7 +7686,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>660</v>
       </c>
@@ -5368,7 +7694,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>667</v>
       </c>
@@ -5376,7 +7702,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>674</v>
       </c>
@@ -5384,7 +7710,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>676</v>
       </c>
@@ -5392,7 +7718,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>683</v>
       </c>
@@ -5400,7 +7726,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>689</v>
       </c>
@@ -5408,7 +7734,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>520</v>
       </c>
@@ -5416,7 +7742,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>50</v>
       </c>
@@ -5424,7 +7750,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>706</v>
       </c>
@@ -5432,7 +7758,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>713</v>
       </c>
@@ -5440,7 +7766,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>513</v>
       </c>
@@ -5448,7 +7774,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>726</v>
       </c>
@@ -5456,12 +7782,20 @@
         <v>727</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>733</v>
       </c>
       <c r="C173" t="s">
         <v>734</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1106</v>
       </c>
     </row>
   </sheetData>

--- a/stats/page_load_times.xlsx
+++ b/stats/page_load_times.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>https://www.youtube.com/</t>
   </si>
@@ -78,6 +78,42 @@
   </si>
   <si>
     <t>3479</t>
+  </si>
+  <si>
+    <t>3461</t>
+  </si>
+  <si>
+    <t>3444</t>
+  </si>
+  <si>
+    <t>3099</t>
+  </si>
+  <si>
+    <t>3327</t>
+  </si>
+  <si>
+    <t>3491</t>
+  </si>
+  <si>
+    <t>3584</t>
+  </si>
+  <si>
+    <t>3726</t>
+  </si>
+  <si>
+    <t>3559</t>
+  </si>
+  <si>
+    <t>3655</t>
+  </si>
+  <si>
+    <t>3718</t>
+  </si>
+  <si>
+    <t>3719</t>
+  </si>
+  <si>
+    <t>3052</t>
   </si>
 </sst>
 </file>
@@ -178,7 +214,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -267,6 +303,71 @@
         <v>21</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/stats/page_load_times.xlsx
+++ b/stats/page_load_times.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>https://www.youtube.com/</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>3052</t>
+  </si>
+  <si>
+    <t>2952</t>
+  </si>
+  <si>
+    <t>2458</t>
   </si>
 </sst>
 </file>
@@ -214,7 +220,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -368,6 +374,16 @@
         <v>33</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/stats/page_load_times.xlsx
+++ b/stats/page_load_times.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>https://www.youtube.com/</t>
   </si>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t>2458</t>
+  </si>
+  <si>
+    <t>3084</t>
+  </si>
+  <si>
+    <t>2666</t>
+  </si>
+  <si>
+    <t>3540</t>
+  </si>
+  <si>
+    <t>3410</t>
   </si>
 </sst>
 </file>
@@ -220,7 +232,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -384,6 +396,26 @@
         <v>35</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/stats/page_load_times.xlsx
+++ b/stats/page_load_times.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
   <si>
     <t>https://www.youtube.com/</t>
   </si>
@@ -132,6 +132,114 @@
   </si>
   <si>
     <t>3410</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>6246</t>
+  </si>
+  <si>
+    <t>7292</t>
+  </si>
+  <si>
+    <t>6223</t>
+  </si>
+  <si>
+    <t>6870</t>
+  </si>
+  <si>
+    <t>6221</t>
+  </si>
+  <si>
+    <t>1028</t>
+  </si>
+  <si>
+    <t>6062</t>
+  </si>
+  <si>
+    <t>6461</t>
+  </si>
+  <si>
+    <t>7335</t>
+  </si>
+  <si>
+    <t>7054</t>
+  </si>
+  <si>
+    <t>3387</t>
+  </si>
+  <si>
+    <t>632</t>
+  </si>
+  <si>
+    <t>3361</t>
+  </si>
+  <si>
+    <t>965</t>
+  </si>
+  <si>
+    <t>1081</t>
+  </si>
+  <si>
+    <t>4271</t>
+  </si>
+  <si>
+    <t>691</t>
+  </si>
+  <si>
+    <t>707</t>
+  </si>
+  <si>
+    <t>4225</t>
+  </si>
+  <si>
+    <t>1046</t>
+  </si>
+  <si>
+    <t>4232</t>
+  </si>
+  <si>
+    <t>1067</t>
+  </si>
+  <si>
+    <t>3978</t>
+  </si>
+  <si>
+    <t>588</t>
+  </si>
+  <si>
+    <t>3097</t>
+  </si>
+  <si>
+    <t>1332</t>
+  </si>
+  <si>
+    <t>3633</t>
+  </si>
+  <si>
+    <t>1099</t>
+  </si>
+  <si>
+    <t>4119</t>
+  </si>
+  <si>
+    <t>3111</t>
+  </si>
+  <si>
+    <t>3712</t>
+  </si>
+  <si>
+    <t>996</t>
+  </si>
+  <si>
+    <t>4499</t>
+  </si>
+  <si>
+    <t>578</t>
+  </si>
+  <si>
+    <t>3673</t>
   </si>
 </sst>
 </file>
@@ -320,75 +428,186 @@
       <c r="A4" t="s">
         <v>21</v>
       </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>22</v>
       </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>23</v>
       </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>24</v>
       </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>25</v>
       </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>26</v>
       </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>27</v>
       </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>28</v>
       </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>29</v>
       </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>30</v>
       </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>31</v>
       </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>32</v>
       </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>2</v>
       </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>33</v>
       </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19">

--- a/stats/page_load_times.xlsx
+++ b/stats/page_load_times.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="135">
   <si>
     <t>https://www.youtube.com/</t>
   </si>
@@ -240,6 +240,183 @@
   </si>
   <si>
     <t>3673</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/</t>
+  </si>
+  <si>
+    <t>3819</t>
+  </si>
+  <si>
+    <t>3589</t>
+  </si>
+  <si>
+    <t>3857</t>
+  </si>
+  <si>
+    <t>4172</t>
+  </si>
+  <si>
+    <t>3793</t>
+  </si>
+  <si>
+    <t>7089</t>
+  </si>
+  <si>
+    <t>4484</t>
+  </si>
+  <si>
+    <t>5113</t>
+  </si>
+  <si>
+    <t>3993</t>
+  </si>
+  <si>
+    <t>4835</t>
+  </si>
+  <si>
+    <t>3304</t>
+  </si>
+  <si>
+    <t>4129</t>
+  </si>
+  <si>
+    <t>about:blank</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>4985</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>4721</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>4374</t>
+  </si>
+  <si>
+    <t>https://www.tutorialspoint.com/</t>
+  </si>
+  <si>
+    <t>2935</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>4351</t>
+  </si>
+  <si>
+    <t>6384</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>5021</t>
+  </si>
+  <si>
+    <t>4088</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>4695</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>5434</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>5510</t>
+  </si>
+  <si>
+    <t>8357</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>21768</t>
+  </si>
+  <si>
+    <t>3532</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>22211</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>12370</t>
+  </si>
+  <si>
+    <t>6253</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>5930</t>
+  </si>
+  <si>
+    <t>4584</t>
+  </si>
+  <si>
+    <t>4150</t>
+  </si>
+  <si>
+    <t>6869</t>
+  </si>
+  <si>
+    <t>4361</t>
+  </si>
+  <si>
+    <t>4500</t>
+  </si>
+  <si>
+    <t>20399</t>
+  </si>
+  <si>
+    <t>5632</t>
+  </si>
+  <si>
+    <t>17447</t>
+  </si>
+  <si>
+    <t>8760</t>
+  </si>
+  <si>
+    <t>12202</t>
   </si>
 </sst>
 </file>
@@ -247,13 +424,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -311,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center"/>
@@ -334,13 +526,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -353,6 +554,9 @@
     <col min="5" max="5" bestFit="true" customWidth="true" width="34.30859375" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="27.01171875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="33.88671875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="39.22265625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.49609375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="43.375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -377,6 +581,15 @@
       <c r="G1" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="H1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -400,6 +613,15 @@
       <c r="G2" t="s">
         <v>14</v>
       </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -423,6 +645,15 @@
       <c r="G3" t="s">
         <v>20</v>
       </c>
+      <c r="H3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -446,6 +677,15 @@
       <c r="G4" t="s">
         <v>45</v>
       </c>
+      <c r="H4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -469,6 +709,15 @@
       <c r="G5" t="s">
         <v>51</v>
       </c>
+      <c r="H5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -480,6 +729,15 @@
       <c r="G6" t="s">
         <v>53</v>
       </c>
+      <c r="H6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -491,6 +749,15 @@
       <c r="G7" t="s">
         <v>56</v>
       </c>
+      <c r="H7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -502,6 +769,15 @@
       <c r="G8" t="s">
         <v>31</v>
       </c>
+      <c r="H8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -513,6 +789,15 @@
       <c r="G9" t="s">
         <v>59</v>
       </c>
+      <c r="H9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -524,6 +809,15 @@
       <c r="G10" t="s">
         <v>61</v>
       </c>
+      <c r="H10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -535,6 +829,15 @@
       <c r="G11" t="s">
         <v>63</v>
       </c>
+      <c r="H11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -546,6 +849,12 @@
       <c r="G12" t="s">
         <v>65</v>
       </c>
+      <c r="H12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -557,6 +866,12 @@
       <c r="G13" t="s">
         <v>67</v>
       </c>
+      <c r="H13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -568,6 +883,12 @@
       <c r="G14" t="s">
         <v>69</v>
       </c>
+      <c r="H14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -579,6 +900,12 @@
       <c r="G15" t="s">
         <v>71</v>
       </c>
+      <c r="H15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I15" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -590,6 +917,12 @@
       <c r="G16" t="s">
         <v>73</v>
       </c>
+      <c r="H16" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -601,6 +934,12 @@
       <c r="G17" t="s">
         <v>75</v>
       </c>
+      <c r="H17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -609,30 +948,96 @@
       <c r="B18" t="s">
         <v>74</v>
       </c>
+      <c r="H18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>35</v>
       </c>
+      <c r="H19" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>36</v>
       </c>
+      <c r="H20" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>37</v>
       </c>
+      <c r="H21" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>38</v>
       </c>
+      <c r="H22" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>39</v>
+      </c>
+      <c r="H23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="H24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="H25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="H26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="H27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="H28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="H29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="H30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="H31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="H32" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/stats/page_load_times.xlsx
+++ b/stats/page_load_times.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="141">
   <si>
     <t>https://www.youtube.com/</t>
   </si>
@@ -417,6 +417,24 @@
   </si>
   <si>
     <t>12202</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>35579</t>
+  </si>
+  <si>
+    <t>5180</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>6162</t>
+  </si>
+  <si>
+    <t>3080</t>
   </si>
 </sst>
 </file>
@@ -541,7 +559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -855,6 +873,9 @@
       <c r="I12" t="s">
         <v>114</v>
       </c>
+      <c r="J12" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -872,6 +893,9 @@
       <c r="I13" t="s">
         <v>115</v>
       </c>
+      <c r="J13" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -962,6 +986,9 @@
       <c r="H19" t="s">
         <v>105</v>
       </c>
+      <c r="I19" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -970,6 +997,9 @@
       <c r="H20" t="s">
         <v>108</v>
       </c>
+      <c r="I20" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1038,6 +1068,16 @@
     <row r="32">
       <c r="H32" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="H33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="H34" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/stats/page_load_times.xlsx
+++ b/stats/page_load_times.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="339">
   <si>
     <t>https://www.youtube.com/</t>
   </si>
@@ -435,6 +435,600 @@
   </si>
   <si>
     <t>3080</t>
+  </si>
+  <si>
+    <t>1945</t>
+  </si>
+  <si>
+    <t>https://sconverter.com/</t>
+  </si>
+  <si>
+    <t>719</t>
+  </si>
+  <si>
+    <t>1195</t>
+  </si>
+  <si>
+    <t>742</t>
+  </si>
+  <si>
+    <t>597</t>
+  </si>
+  <si>
+    <t>624</t>
+  </si>
+  <si>
+    <t>1118</t>
+  </si>
+  <si>
+    <t>655</t>
+  </si>
+  <si>
+    <t>611</t>
+  </si>
+  <si>
+    <t>615</t>
+  </si>
+  <si>
+    <t>21165</t>
+  </si>
+  <si>
+    <t>1175</t>
+  </si>
+  <si>
+    <t>631</t>
+  </si>
+  <si>
+    <t>1138</t>
+  </si>
+  <si>
+    <t>1162</t>
+  </si>
+  <si>
+    <t>1225</t>
+  </si>
+  <si>
+    <t>628</t>
+  </si>
+  <si>
+    <t>1171</t>
+  </si>
+  <si>
+    <t>1129</t>
+  </si>
+  <si>
+    <t>1153</t>
+  </si>
+  <si>
+    <t>1136</t>
+  </si>
+  <si>
+    <t>1306</t>
+  </si>
+  <si>
+    <t>1181</t>
+  </si>
+  <si>
+    <t>711</t>
+  </si>
+  <si>
+    <t>1139</t>
+  </si>
+  <si>
+    <t>1186</t>
+  </si>
+  <si>
+    <t>1104</t>
+  </si>
+  <si>
+    <t>1152</t>
+  </si>
+  <si>
+    <t>715</t>
+  </si>
+  <si>
+    <t>1165</t>
+  </si>
+  <si>
+    <t>620</t>
+  </si>
+  <si>
+    <t>612</t>
+  </si>
+  <si>
+    <t>618</t>
+  </si>
+  <si>
+    <t>1128</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>1176</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>1157</t>
+  </si>
+  <si>
+    <t>1575</t>
+  </si>
+  <si>
+    <t>626</t>
+  </si>
+  <si>
+    <t>1777</t>
+  </si>
+  <si>
+    <t>https://www.youtu2.com/</t>
+  </si>
+  <si>
+    <t>1544</t>
+  </si>
+  <si>
+    <t>553</t>
+  </si>
+  <si>
+    <t>695</t>
+  </si>
+  <si>
+    <t>681</t>
+  </si>
+  <si>
+    <t>551</t>
+  </si>
+  <si>
+    <t>589</t>
+  </si>
+  <si>
+    <t>1869</t>
+  </si>
+  <si>
+    <t>1693</t>
+  </si>
+  <si>
+    <t>982</t>
+  </si>
+  <si>
+    <t>374</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>421</t>
+  </si>
+  <si>
+    <t>509</t>
+  </si>
+  <si>
+    <t>21139</t>
+  </si>
+  <si>
+    <t>423</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>575</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>601</t>
+  </si>
+  <si>
+    <t>576</t>
+  </si>
+  <si>
+    <t>515</t>
+  </si>
+  <si>
+    <t>522</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>414</t>
+  </si>
+  <si>
+    <t>453</t>
+  </si>
+  <si>
+    <t>595</t>
+  </si>
+  <si>
+    <t>617</t>
+  </si>
+  <si>
+    <t>538</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>497</t>
+  </si>
+  <si>
+    <t>587</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>531</t>
+  </si>
+  <si>
+    <t>475</t>
+  </si>
+  <si>
+    <t>485</t>
+  </si>
+  <si>
+    <t>640</t>
+  </si>
+  <si>
+    <t>476</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>479</t>
+  </si>
+  <si>
+    <t>666</t>
+  </si>
+  <si>
+    <t>537</t>
+  </si>
+  <si>
+    <t>591</t>
+  </si>
+  <si>
+    <t>568</t>
+  </si>
+  <si>
+    <t>478</t>
+  </si>
+  <si>
+    <t>648</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>463</t>
+  </si>
+  <si>
+    <t>647</t>
+  </si>
+  <si>
+    <t>558</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>633</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>443</t>
+  </si>
+  <si>
+    <t>21168</t>
+  </si>
+  <si>
+    <t>416</t>
+  </si>
+  <si>
+    <t>466</t>
+  </si>
+  <si>
+    <t>471</t>
+  </si>
+  <si>
+    <t>451</t>
+  </si>
+  <si>
+    <t>806</t>
+  </si>
+  <si>
+    <t>428</t>
+  </si>
+  <si>
+    <t>579</t>
+  </si>
+  <si>
+    <t>446</t>
+  </si>
+  <si>
+    <t>638</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>505</t>
+  </si>
+  <si>
+    <t>582</t>
+  </si>
+  <si>
+    <t>452</t>
+  </si>
+  <si>
+    <t>583</t>
+  </si>
+  <si>
+    <t>4222</t>
+  </si>
+  <si>
+    <t>1431</t>
+  </si>
+  <si>
+    <t>486</t>
+  </si>
+  <si>
+    <t>436</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>413</t>
+  </si>
+  <si>
+    <t>473</t>
+  </si>
+  <si>
+    <t>2256</t>
+  </si>
+  <si>
+    <t>1238</t>
+  </si>
+  <si>
+    <t>533</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>469</t>
+  </si>
+  <si>
+    <t>831</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>2134</t>
+  </si>
+  <si>
+    <t>1277</t>
+  </si>
+  <si>
+    <t>541</t>
+  </si>
+  <si>
+    <t>454</t>
+  </si>
+  <si>
+    <t>457</t>
+  </si>
+  <si>
+    <t>433</t>
+  </si>
+  <si>
+    <t>498</t>
+  </si>
+  <si>
+    <t>434</t>
+  </si>
+  <si>
+    <t>429</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>606</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>492</t>
+  </si>
+  <si>
+    <t>439</t>
+  </si>
+  <si>
+    <t>496</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>491</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>396</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>449</t>
+  </si>
+  <si>
+    <t>554</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>459</t>
+  </si>
+  <si>
+    <t>704</t>
+  </si>
+  <si>
+    <t>669</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>698</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>782</t>
+  </si>
+  <si>
+    <t>393</t>
+  </si>
+  <si>
+    <t>493</t>
+  </si>
+  <si>
+    <t>438</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>417</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>397</t>
+  </si>
+  <si>
+    <t>552</t>
+  </si>
+  <si>
+    <t>447</t>
+  </si>
+  <si>
+    <t>442</t>
+  </si>
+  <si>
+    <t>534</t>
+  </si>
+  <si>
+    <t>441</t>
+  </si>
+  <si>
+    <t>395</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>622</t>
+  </si>
+  <si>
+    <t>536</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>445</t>
+  </si>
+  <si>
+    <t>519</t>
+  </si>
+  <si>
+    <t>484</t>
+  </si>
+  <si>
+    <t>431</t>
+  </si>
+  <si>
+    <t>437</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>482</t>
+  </si>
+  <si>
+    <t>444</t>
+  </si>
+  <si>
+    <t>427</t>
+  </si>
+  <si>
+    <t>528</t>
+  </si>
+  <si>
+    <t>643</t>
+  </si>
+  <si>
+    <t>455</t>
+  </si>
+  <si>
+    <t>524</t>
+  </si>
+  <si>
+    <t>435</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>516</t>
   </si>
 </sst>
 </file>
@@ -442,13 +1036,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -521,7 +1125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center"/>
@@ -553,13 +1157,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:L209"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -575,6 +1185,8 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="39.22265625" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="16.49609375" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="43.375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="32.0234375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="35.05859375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -608,6 +1220,12 @@
       <c r="J1" s="10" t="s">
         <v>96</v>
       </c>
+      <c r="K1" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -640,6 +1258,12 @@
       <c r="J2" t="s">
         <v>97</v>
       </c>
+      <c r="K2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L2" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -672,6 +1296,12 @@
       <c r="J3" t="s">
         <v>100</v>
       </c>
+      <c r="K3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L3" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -704,6 +1334,12 @@
       <c r="J4" t="s">
         <v>103</v>
       </c>
+      <c r="K4" t="s">
+        <v>145</v>
+      </c>
+      <c r="L4" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -736,6 +1372,12 @@
       <c r="J5" t="s">
         <v>106</v>
       </c>
+      <c r="K5" t="s">
+        <v>146</v>
+      </c>
+      <c r="L5" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -756,6 +1398,12 @@
       <c r="J6" t="s">
         <v>111</v>
       </c>
+      <c r="K6" t="s">
+        <v>147</v>
+      </c>
+      <c r="L6" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -776,6 +1424,12 @@
       <c r="J7" t="s">
         <v>117</v>
       </c>
+      <c r="K7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L7" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -796,6 +1450,12 @@
       <c r="J8" t="s">
         <v>122</v>
       </c>
+      <c r="K8" t="s">
+        <v>149</v>
+      </c>
+      <c r="L8" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -816,6 +1476,12 @@
       <c r="J9" t="s">
         <v>125</v>
       </c>
+      <c r="K9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L9" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -836,6 +1502,12 @@
       <c r="J10" t="s">
         <v>132</v>
       </c>
+      <c r="K10" t="s">
+        <v>151</v>
+      </c>
+      <c r="L10" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -856,6 +1528,12 @@
       <c r="J11" t="s">
         <v>134</v>
       </c>
+      <c r="K11" t="s">
+        <v>152</v>
+      </c>
+      <c r="L11" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -876,6 +1554,12 @@
       <c r="J12" t="s">
         <v>137</v>
       </c>
+      <c r="K12" t="s">
+        <v>153</v>
+      </c>
+      <c r="L12" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -896,6 +1580,12 @@
       <c r="J13" t="s">
         <v>140</v>
       </c>
+      <c r="K13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -913,6 +1603,12 @@
       <c r="I14" t="s">
         <v>118</v>
       </c>
+      <c r="K14" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -930,6 +1626,12 @@
       <c r="I15" t="s">
         <v>120</v>
       </c>
+      <c r="K15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -947,6 +1649,12 @@
       <c r="I16" t="s">
         <v>123</v>
       </c>
+      <c r="K16" t="s">
+        <v>156</v>
+      </c>
+      <c r="L16" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -964,6 +1672,12 @@
       <c r="I17" t="s">
         <v>109</v>
       </c>
+      <c r="K17" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -978,6 +1692,12 @@
       <c r="I18" t="s">
         <v>92</v>
       </c>
+      <c r="K18" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -989,6 +1709,12 @@
       <c r="I19" t="s">
         <v>135</v>
       </c>
+      <c r="K19" t="s">
+        <v>159</v>
+      </c>
+      <c r="L19" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1000,6 +1726,12 @@
       <c r="I20" t="s">
         <v>138</v>
       </c>
+      <c r="K20" t="s">
+        <v>160</v>
+      </c>
+      <c r="L20" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1008,6 +1740,12 @@
       <c r="H21" t="s">
         <v>110</v>
       </c>
+      <c r="K21" t="s">
+        <v>161</v>
+      </c>
+      <c r="L21" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1016,6 +1754,12 @@
       <c r="H22" t="s">
         <v>116</v>
       </c>
+      <c r="K22" t="s">
+        <v>162</v>
+      </c>
+      <c r="L22" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1024,60 +1768,1067 @@
       <c r="H23" t="s">
         <v>119</v>
       </c>
+      <c r="K23" t="s">
+        <v>148</v>
+      </c>
+      <c r="L23" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="24">
+      <c r="A24" t="s">
+        <v>141</v>
+      </c>
       <c r="H24" t="s">
         <v>121</v>
       </c>
+      <c r="K24" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="25">
+      <c r="A25" t="s">
+        <v>182</v>
+      </c>
       <c r="H25" t="s">
         <v>124</v>
       </c>
+      <c r="K25" t="s">
+        <v>163</v>
+      </c>
+      <c r="L25" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="26">
+      <c r="A26" t="s">
+        <v>190</v>
+      </c>
       <c r="H26" t="s">
         <v>126</v>
       </c>
+      <c r="K26" t="s">
+        <v>164</v>
+      </c>
+      <c r="L26" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="27">
+      <c r="A27" t="s">
+        <v>252</v>
+      </c>
       <c r="H27" t="s">
         <v>127</v>
       </c>
+      <c r="K27" t="s">
+        <v>165</v>
+      </c>
+      <c r="L27" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>260</v>
+      </c>
       <c r="H28" t="s">
         <v>128</v>
       </c>
+      <c r="K28" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="29">
+      <c r="A29" t="s">
+        <v>270</v>
+      </c>
       <c r="H29" t="s">
         <v>129</v>
+      </c>
+      <c r="K29" t="s">
+        <v>167</v>
+      </c>
+      <c r="L29" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="30">
       <c r="H30" t="s">
         <v>130</v>
       </c>
+      <c r="K30" t="s">
+        <v>168</v>
+      </c>
+      <c r="L30" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="31">
       <c r="H31" t="s">
         <v>131</v>
       </c>
+      <c r="K31" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="32">
       <c r="H32" t="s">
         <v>133</v>
       </c>
+      <c r="K32" t="s">
+        <v>169</v>
+      </c>
+      <c r="L32" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="33">
       <c r="H33" t="s">
         <v>136</v>
       </c>
+      <c r="K33" t="s">
+        <v>40</v>
+      </c>
+      <c r="L33" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="34">
       <c r="H34" t="s">
         <v>139</v>
+      </c>
+      <c r="K34" t="s">
+        <v>170</v>
+      </c>
+      <c r="L34" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="K35" t="s">
+        <v>171</v>
+      </c>
+      <c r="L35" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="K36" t="s">
+        <v>172</v>
+      </c>
+      <c r="L36" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="K37" t="s">
+        <v>173</v>
+      </c>
+      <c r="L37" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="K38" t="s">
+        <v>174</v>
+      </c>
+      <c r="L38" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="K39" t="s">
+        <v>175</v>
+      </c>
+      <c r="L39" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="K40" t="s">
+        <v>176</v>
+      </c>
+      <c r="L40" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="K41" t="s">
+        <v>177</v>
+      </c>
+      <c r="L41" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="K42" t="s">
+        <v>169</v>
+      </c>
+      <c r="L42" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="K43" t="s">
+        <v>177</v>
+      </c>
+      <c r="L43" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="K44" t="s">
+        <v>148</v>
+      </c>
+      <c r="L44" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="K45" t="s">
+        <v>178</v>
+      </c>
+      <c r="L45" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="K46" t="s">
+        <v>179</v>
+      </c>
+      <c r="L46" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="K47" t="s">
+        <v>180</v>
+      </c>
+      <c r="L47" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="K48" t="s">
+        <v>181</v>
+      </c>
+      <c r="L48" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="L49" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="L50" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="L51" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="L52" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="L53" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="L54" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="L55" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="L56" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="L57" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="L58" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="L59" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="L60" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="L61" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="L62" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="L63" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="L64" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="L65" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="L66" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="L67" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="L68" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="L69" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="L70" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="L71" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="L72" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="L73" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="L74" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="L75" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="L76" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="L77" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="L78" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="L79" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="L80" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="L81" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="L82" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="L83" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="L84" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="L85" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="L86" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="L87" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="L88" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="L89" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="L90" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="L91" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="L92" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="L93" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="L94" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="L95" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="L96" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="L97" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="L98" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="L99" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="L100" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="L101" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="L102" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="L103" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="L104" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="L105" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="L106" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="L107" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="L108" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="L109" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="L110" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="L111" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="L112" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="L113" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="L114" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="L115" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="L116" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="L117" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="L118" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="L119" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="L120" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="L121" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="L122" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="L123" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="L124" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="L125" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="L126" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="L127" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="L128" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="L129" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="L130" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="L131" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="L132" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="L133" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="L134" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="L135" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="L136" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="L137" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="L138" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="L139" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="L140" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="L141" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="L142" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="L143" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="L144" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="L145" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="L146" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="L147" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="L148" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="L149" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="L150" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="L151" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="L152" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="L153" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="L154" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="L155" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="L156" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="L157" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="L158" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="L159" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="L160" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="L161" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="L162" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="L163" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="L164" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="L165" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="L166" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="L167" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="L168" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="L169" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="L170" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="L171" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="L172" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="L173" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="L174" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="L175" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="L176" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="L177" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="L178" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="L179" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="L180" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="L181" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="L182" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="L183" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="L184" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="L185" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="L186" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="L187" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="L188" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="L189" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="L190" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="L191" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="L192" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="L193" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="L194" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="L195" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="L196" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="L197" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="L198" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="L199" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="L200" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="L201" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="L202" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="L203" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="L204" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="L205" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="L206" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="L207" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="L208" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="L209" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/stats/page_load_times.xlsx
+++ b/stats/page_load_times.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="145">
   <si>
     <t>https://www.youtube.com/</t>
   </si>
@@ -435,6 +435,18 @@
   </si>
   <si>
     <t>3080</t>
+  </si>
+  <si>
+    <t>3876</t>
+  </si>
+  <si>
+    <t>3138</t>
+  </si>
+  <si>
+    <t>3164</t>
+  </si>
+  <si>
+    <t>3010</t>
   </si>
 </sst>
 </file>
@@ -559,7 +571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1080,6 +1092,26 @@
         <v>139</v>
       </c>
     </row>
+    <row r="35">
+      <c r="H35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="H36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="H37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="H38" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
